--- a/bazy/pakosc/numeracja.xlsx
+++ b/bazy/pakosc/numeracja.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.git\homepage\bazy\pakosc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153EA6B-B180-45B2-9D63-A4F37FF75A6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B0DA3-02CE-4885-AD45-48A2073A0BA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Razem" sheetId="6" r:id="rId1"/>
-    <sheet name="Zmiana numeracji" sheetId="12" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="11" r:id="rId3"/>
+    <sheet name="przed zmianą numeracji" sheetId="6" r:id="rId1"/>
+    <sheet name="po zmianie numeracji" sheetId="12" r:id="rId2"/>
+    <sheet name="Inne" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Razem!$A$4:$P$624</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Zmiana numeracji'!$A$3:$I$229</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Razem!$A$1:$F$617</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'po zmianie numeracji'!$A$3:$H$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'przed zmianą numeracji'!$A$4:$P$624</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'przed zmianą numeracji'!$A$1:$F$617</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="E118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J166" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="I170" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J206" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="I213" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J209" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="I216" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B225" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="B232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="B235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="B236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1116">
   <si>
     <t>Antczak</t>
   </si>
@@ -3283,9 +3283,6 @@
     <t>Liepelt Ernst</t>
   </si>
   <si>
-    <t>Marszał. Piłs.</t>
-  </si>
-  <si>
     <t>Smorczyński Józef</t>
   </si>
   <si>
@@ -3355,12 +3352,6 @@
     <t>Inowrocławska (Ks. Kurzawskiego)</t>
   </si>
   <si>
-    <t>robotnicy 1939</t>
-  </si>
-  <si>
-    <t>Poborowi 1939</t>
-  </si>
-  <si>
     <t>Nelka Franciszek, lat 20</t>
   </si>
   <si>
@@ -3427,9 +3418,6 @@
     <t>Woda Jan, lat 19, prac.</t>
   </si>
   <si>
-    <t>poborowi 1939</t>
-  </si>
-  <si>
     <t>Błaszak Czesław, 18 lat, prac.</t>
   </si>
   <si>
@@ -3439,15 +3427,9 @@
     <t>Szklarski Stanisław, lat 18, prac.</t>
   </si>
   <si>
-    <t>Adamski Sylwester, lat 18, prac.</t>
-  </si>
-  <si>
     <t>Hoffmann Stefan, lat 17, prac</t>
   </si>
   <si>
-    <t>Hulisz Marian, lat 17 prac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Witczak Franciszek, lat 19, </t>
   </si>
   <si>
@@ -3538,9 +3520,6 @@
     <t>Witczak Jan, lat 19, prac. w Radłówku</t>
   </si>
   <si>
-    <t>Wojciechowski Antoni, lat 17, pracuje w Piechcinie</t>
-  </si>
-  <si>
     <t>Czubaj Zbigniew, lat 18, pracuje w Piechcinie</t>
   </si>
   <si>
@@ -3559,45 +3538,9 @@
     <t>Kalwaryjska</t>
   </si>
   <si>
-    <t>Robotnicy 08/09.1939</t>
-  </si>
-  <si>
-    <t>Malinowski Piotr</t>
-  </si>
-  <si>
-    <t>Witczak Franciszek</t>
-  </si>
-  <si>
-    <t>Janowski Zygmunt</t>
-  </si>
-  <si>
-    <t>Waszak Bernard</t>
-  </si>
-  <si>
-    <t>Marnocha Franciszek</t>
-  </si>
-  <si>
-    <t>Kucała Władysław</t>
-  </si>
-  <si>
-    <t>Grześkowiak Władysław</t>
-  </si>
-  <si>
-    <t>Nadrajkowski Edmund</t>
-  </si>
-  <si>
-    <t>Lampke Edmund</t>
-  </si>
-  <si>
-    <t>Nowacki Franciszek</t>
-  </si>
-  <si>
     <t>Płoszyński Eugeniusz</t>
   </si>
   <si>
-    <t>Matuszkiewicz</t>
-  </si>
-  <si>
     <t>Matuszkiewicz Bolesław</t>
   </si>
   <si>
@@ -3635,9 +3578,6 @@
   </si>
   <si>
     <t>Lumpe Józef</t>
-  </si>
-  <si>
-    <t>Kosel Jozef</t>
   </si>
   <si>
     <t>Flauss Walter, Eisen und Kolonialwaren</t>
@@ -3986,6 +3926,9 @@
   </si>
   <si>
     <t>Cwelig 1920-39 miał oberże na przeciw kościola</t>
+  </si>
+  <si>
+    <t>Robotnicy 1939</t>
   </si>
 </sst>
 </file>
@@ -5644,30 +5587,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5687,11 +5606,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6013,8 +5956,8 @@
   </sheetPr>
   <dimension ref="A1:Q625"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A582" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K430" sqref="K430"/>
+    <sheetView showGridLines="0" topLeftCell="A520" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B563" sqref="B563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6038,28 +5981,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="269" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="275" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I2" s="276"/>
-      <c r="J2" s="272" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="274"/>
+      <c r="A2" s="277" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="283" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I2" s="284"/>
+      <c r="J2" s="280" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="282"/>
     </row>
     <row r="3" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -6168,7 +6111,7 @@
         <v>552</v>
       </c>
       <c r="O5" s="244" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="P5" s="245"/>
       <c r="Q5" s="142"/>
@@ -6845,7 +6788,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>690</v>
@@ -6957,7 +6900,7 @@
         <v>824</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="O28" s="27" t="s">
         <v>763</v>
@@ -7041,7 +6984,7 @@
         <v>155</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>690</v>
@@ -7180,7 +7123,7 @@
       </c>
       <c r="G34" s="148"/>
       <c r="H34" s="146" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="I34" s="149">
         <v>9</v>
@@ -7252,7 +7195,7 @@
       </c>
       <c r="G36" s="159"/>
       <c r="H36" s="160" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="I36" s="161">
         <v>10</v>
@@ -7274,7 +7217,7 @@
         <v>759</v>
       </c>
       <c r="P36" s="263" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="Q36" s="142"/>
     </row>
@@ -7326,7 +7269,7 @@
       </c>
       <c r="G38" s="148"/>
       <c r="H38" s="146" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="I38" s="149">
         <v>11</v>
@@ -7359,7 +7302,7 @@
       </c>
       <c r="G39" s="153"/>
       <c r="H39" s="154" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="I39" s="155">
         <v>11</v>
@@ -7402,7 +7345,7 @@
       </c>
       <c r="G40" s="148"/>
       <c r="H40" s="146" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="I40" s="149">
         <v>11</v>
@@ -7425,7 +7368,7 @@
         <v>136</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>690</v>
@@ -7464,7 +7407,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>690</v>
@@ -7730,7 +7673,7 @@
       <c r="M49" s="38"/>
       <c r="N49" s="39"/>
       <c r="O49" s="39" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="P49" s="40"/>
       <c r="Q49" s="142"/>
@@ -8294,7 +8237,7 @@
         <v>195</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>690</v>
@@ -8512,7 +8455,7 @@
         <v>223</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>690</v>
@@ -8631,7 +8574,7 @@
         <v>76</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>690</v>
@@ -8674,7 +8617,7 @@
         <v>357</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>690</v>
@@ -8927,7 +8870,7 @@
         <v>153</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>690</v>
@@ -9531,10 +9474,10 @@
         <v>242</v>
       </c>
       <c r="O100" s="160" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="P100" s="264" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="Q100" s="142"/>
     </row>
@@ -10491,7 +10434,7 @@
       </c>
       <c r="G129" s="170"/>
       <c r="H129" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I129" s="171">
         <v>36</v>
@@ -10521,7 +10464,7 @@
       </c>
       <c r="G130" s="170"/>
       <c r="H130" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I130" s="171">
         <v>37</v>
@@ -10551,7 +10494,7 @@
       </c>
       <c r="G131" s="170"/>
       <c r="H131" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I131" s="171">
         <v>37</v>
@@ -10581,7 +10524,7 @@
       </c>
       <c r="G132" s="170"/>
       <c r="H132" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I132" s="171">
         <v>37</v>
@@ -10611,7 +10554,7 @@
       </c>
       <c r="G133" s="170"/>
       <c r="H133" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I133" s="171">
         <v>37</v>
@@ -10641,7 +10584,7 @@
       </c>
       <c r="G134" s="170"/>
       <c r="H134" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I134" s="171">
         <v>39</v>
@@ -10671,7 +10614,7 @@
       </c>
       <c r="G135" s="170"/>
       <c r="H135" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I135" s="171">
         <v>39</v>
@@ -10701,7 +10644,7 @@
       </c>
       <c r="G136" s="170"/>
       <c r="H136" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I136" s="171">
         <v>39</v>
@@ -10731,7 +10674,7 @@
       </c>
       <c r="G137" s="170"/>
       <c r="H137" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I137" s="171">
         <v>39</v>
@@ -10761,7 +10704,7 @@
       </c>
       <c r="G138" s="170"/>
       <c r="H138" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I138" s="171">
         <v>39</v>
@@ -10791,7 +10734,7 @@
       </c>
       <c r="G139" s="170"/>
       <c r="H139" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I139" s="171">
         <v>39</v>
@@ -10821,7 +10764,7 @@
       </c>
       <c r="G140" s="170"/>
       <c r="H140" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I140" s="171">
         <v>40</v>
@@ -10851,7 +10794,7 @@
       </c>
       <c r="G141" s="170"/>
       <c r="H141" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I141" s="171">
         <v>41</v>
@@ -10881,7 +10824,7 @@
       </c>
       <c r="G142" s="170"/>
       <c r="H142" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I142" s="171">
         <v>41</v>
@@ -10911,7 +10854,7 @@
       </c>
       <c r="G143" s="170"/>
       <c r="H143" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I143" s="171">
         <v>42</v>
@@ -10941,7 +10884,7 @@
       </c>
       <c r="G144" s="170"/>
       <c r="H144" s="172" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I144" s="171">
         <v>42</v>
@@ -10961,7 +10904,7 @@
         <v>695</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>684</v>
@@ -12385,7 +12328,7 @@
         <v>359</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E187" s="48" t="s">
         <v>690</v>
@@ -12744,7 +12687,7 @@
         <v>30</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>690</v>
@@ -13714,7 +13657,7 @@
         <v>37</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E228" s="48" t="s">
         <v>690</v>
@@ -13937,7 +13880,7 @@
         <v>2</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E235" s="48" t="s">
         <v>690</v>
@@ -14057,7 +14000,7 @@
         <v>168</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E239" s="53" t="s">
         <v>690</v>
@@ -15047,7 +14990,7 @@
         <v>693</v>
       </c>
       <c r="O268" s="39" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="P268" s="40"/>
       <c r="Q268" s="142"/>
@@ -17041,7 +16984,7 @@
         <v>46</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="E334" s="48" t="s">
         <v>691</v>
@@ -18201,7 +18144,7 @@
         <v>5</v>
       </c>
       <c r="D375" s="27" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="E375" s="53" t="s">
         <v>706</v>
@@ -22757,7 +22700,7 @@
         <v>71</v>
       </c>
       <c r="D545" s="39" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="E545" s="20" t="s">
         <v>684</v>
@@ -23021,10 +22964,10 @@
         <v>486</v>
       </c>
       <c r="N553" s="27" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="O553" s="27" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="P553" s="32"/>
       <c r="Q553" s="142"/>
@@ -23040,7 +22983,7 @@
         <v>30</v>
       </c>
       <c r="D554" s="39" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="E554" s="20" t="s">
         <v>684</v>
@@ -23631,7 +23574,7 @@
         <v>347</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="E578" s="66" t="s">
         <v>684</v>
@@ -24319,7 +24262,7 @@
         <v>326</v>
       </c>
       <c r="D604" s="91" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E604" s="92" t="s">
         <v>687</v>
@@ -24896,10 +24839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J229"/>
+  <dimension ref="A2:I237"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J190" sqref="J190"/>
+    <sheetView topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24910,19 +24853,18 @@
     <col min="4" max="4" width="16.28515625" style="252" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="252" customWidth="1"/>
     <col min="6" max="6" width="17" style="252" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="252" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="252" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="256" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="256"/>
+    <col min="7" max="7" width="27.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="252" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="256" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="256"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="253" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="C2" s="254" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="255" t="s">
         <v>856</v>
@@ -24934,24 +24876,21 @@
         <v>875</v>
       </c>
       <c r="G2" s="255" t="s">
-        <v>999</v>
+        <v>1115</v>
       </c>
       <c r="H2" s="255" t="s">
-        <v>932</v>
+        <v>1010</v>
       </c>
       <c r="I2" s="255" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J2" s="255" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="252" t="s">
         <v>716</v>
       </c>
       <c r="B3" s="253" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C3" s="257" t="s">
         <v>878</v>
@@ -24974,217 +24913,211 @@
       <c r="I3" s="255" t="s">
         <v>878</v>
       </c>
-      <c r="J3" s="255" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="279" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B4" s="277">
+      <c r="B4" s="269">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="279" t="s">
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B5" s="277">
+      <c r="B5" s="269">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="279" t="s">
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B6" s="277">
+      <c r="B6" s="269">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="279" t="s">
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B7" s="277">
+      <c r="B7" s="269">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="279" t="s">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B8" s="277">
+      <c r="B8" s="269">
         <v>8</v>
       </c>
       <c r="E8" s="258" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="279" t="s">
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B9" s="277">
+      <c r="B9" s="269">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="279" t="s">
+    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B10" s="277">
+      <c r="B10" s="269">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="279" t="s">
+    <row r="11" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B11" s="277">
+      <c r="B11" s="269">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="279" t="s">
+    <row r="12" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="277">
+      <c r="B12" s="269">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="280" t="s">
+    <row r="13" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="272" t="s">
         <v>681</v>
       </c>
-      <c r="B13" s="278">
+      <c r="B13" s="270">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="281" t="s">
+    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B14" s="252">
         <v>1</v>
       </c>
+      <c r="G14" s="258" t="s">
+        <v>971</v>
+      </c>
       <c r="H14" s="258" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
       <c r="I14" s="258" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J14" s="258" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="281"/>
-      <c r="H15" s="258" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="281" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="273"/>
+      <c r="G15" s="258" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B16" s="252">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="281" t="s">
+    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B17" s="252">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="281" t="s">
+    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B18" s="252">
         <v>4</v>
       </c>
-      <c r="I18" s="259" t="s">
+      <c r="H18" s="259" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="281"/>
-      <c r="I19" s="259" t="s">
+    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="273"/>
+      <c r="H19" s="259" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="281" t="s">
+    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B20" s="252">
         <v>5</v>
       </c>
       <c r="C20" s="258" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="281" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B21" s="252">
         <v>6</v>
       </c>
       <c r="G21" s="258" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H21" s="258" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="281" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B22" s="252">
         <v>7</v>
       </c>
-      <c r="H22" s="258" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="281" t="s">
+      <c r="G22" s="258" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B23" s="252">
         <v>8</v>
       </c>
-      <c r="H23" s="258" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="281" t="s">
+      <c r="G23" s="258" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B24" s="252">
         <v>9</v>
       </c>
-      <c r="I24" s="260" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="281" t="s">
+      <c r="H24" s="260" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B25" s="252">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="281" t="s">
+    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B26" s="252">
@@ -25198,27 +25131,27 @@
         <v>862</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="281" t="s">
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B27" s="252">
         <v>12</v>
       </c>
-      <c r="H27" s="258" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="281" t="s">
+      <c r="G27" s="258" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B28" s="252">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="281" t="s">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B29" s="252">
@@ -25228,35 +25161,35 @@
         <v>865</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="281" t="s">
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B30" s="252">
         <v>15</v>
       </c>
-      <c r="I30" s="259" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="281" t="s">
+      <c r="H30" s="259" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B31" s="252">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="281" t="s">
+    <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B32" s="252">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="281" t="s">
+    <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B33" s="252">
@@ -25266,8 +25199,8 @@
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="281" t="s">
+    <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B34" s="252">
@@ -25276,12 +25209,12 @@
       <c r="E34" s="258" t="s">
         <v>871</v>
       </c>
-      <c r="I34" s="259" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="281" t="s">
+      <c r="H34" s="259" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B35" s="252">
@@ -25291,14 +25224,14 @@
         <v>894</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="281"/>
+    <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="273"/>
       <c r="G36" s="258" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="281" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B37" s="252">
@@ -25307,79 +25240,76 @@
       <c r="E37" s="258" t="s">
         <v>872</v>
       </c>
-      <c r="H37" s="258" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="281"/>
-      <c r="H38" s="258" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="281" t="s">
+      <c r="G37" s="258" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="273"/>
+      <c r="G38" s="258" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B39" s="252">
         <v>22</v>
       </c>
-      <c r="J39" s="258" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="281" t="s">
+      <c r="I39" s="258" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B40" s="252">
         <v>23</v>
       </c>
+      <c r="H40" s="260" t="s">
+        <v>1016</v>
+      </c>
       <c r="I40" s="260" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J40" s="260" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="281" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B41" s="252">
         <v>24</v>
       </c>
       <c r="G41" s="258" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="281"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="273"/>
       <c r="G42" s="258" t="s">
-        <v>217</v>
-      </c>
-      <c r="H42" s="258" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="281" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B43" s="252">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="281" t="s">
+    <row r="44" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B44" s="252">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="281" t="s">
+    <row r="45" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B45" s="252">
@@ -25392,37 +25322,37 @@
       <c r="F45" s="258" t="s">
         <v>861</v>
       </c>
-      <c r="H45" s="258" t="s">
+      <c r="G45" s="258" t="s">
+        <v>959</v>
+      </c>
+      <c r="I45" s="258" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="273"/>
+      <c r="G46" s="258" t="s">
         <v>965</v>
       </c>
-      <c r="J45" s="258" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="281"/>
-      <c r="H46" s="258" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="281" t="s">
+    </row>
+    <row r="47" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B47" s="252">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="281" t="s">
+    <row r="48" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B48" s="252">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="281" t="s">
+    <row r="49" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B49" s="252">
@@ -25435,15 +25365,15 @@
       <c r="F49" s="258" t="s">
         <v>860</v>
       </c>
-      <c r="H49" s="258" t="s">
-        <v>933</v>
-      </c>
-      <c r="J49" s="258" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="281"/>
+      <c r="G49" s="258" t="s">
+        <v>930</v>
+      </c>
+      <c r="I49" s="258" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="273"/>
       <c r="D50" s="258" t="s">
         <v>863</v>
       </c>
@@ -25452,77 +25382,77 @@
         <v>863</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="281" t="s">
+    <row r="51" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="273" t="s">
         <v>683</v>
       </c>
       <c r="B51" s="252">
         <v>31</v>
       </c>
-      <c r="H51" s="258" t="s">
-        <v>937</v>
-      </c>
-      <c r="J51" s="258" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="280" t="s">
+      <c r="G51" s="258" t="s">
+        <v>934</v>
+      </c>
+      <c r="I51" s="258" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="272" t="s">
         <v>683</v>
       </c>
-      <c r="B52" s="278">
+      <c r="B52" s="270">
         <v>32</v>
       </c>
       <c r="G52" s="258" t="s">
-        <v>913</v>
-      </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="281" t="s">
-        <v>930</v>
+        <v>912</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B53" s="252">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="281" t="s">
-        <v>930</v>
+    <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B54" s="252">
         <v>2</v>
       </c>
-      <c r="H54" s="258" t="s">
-        <v>976</v>
-      </c>
-      <c r="I54" s="259" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="281"/>
-      <c r="H55" s="258" t="s">
-        <v>987</v>
-      </c>
-      <c r="I55" s="259" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="281" t="s">
-        <v>930</v>
+      <c r="G54" s="258" t="s">
+        <v>970</v>
+      </c>
+      <c r="H54" s="259" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="273"/>
+      <c r="G55" s="258" t="s">
+        <v>981</v>
+      </c>
+      <c r="H55" s="259" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B56" s="252">
         <v>3</v>
       </c>
-      <c r="I56" s="259" t="s">
+      <c r="H56" s="259" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="281" t="s">
-        <v>930</v>
+    <row r="57" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B57" s="252">
         <v>4</v>
@@ -25530,13 +25460,13 @@
       <c r="F57" s="258" t="s">
         <v>877</v>
       </c>
-      <c r="I57" s="259" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="281" t="s">
-        <v>930</v>
+      <c r="H57" s="259" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B58" s="252">
         <v>5</v>
@@ -25551,68 +25481,65 @@
         <v>867</v>
       </c>
       <c r="G58" s="258" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H58" s="258" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="281" t="s">
-        <v>930</v>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B59" s="252">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="281" t="s">
-        <v>930</v>
+    <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B60" s="252">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="281" t="s">
-        <v>930</v>
+    <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B61" s="252">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="281" t="s">
-        <v>930</v>
+    <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B62" s="252">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="281" t="s">
-        <v>930</v>
+    <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="273" t="s">
+        <v>929</v>
       </c>
       <c r="B63" s="252">
         <v>12</v>
       </c>
-      <c r="H63" s="258" t="s">
-        <v>966</v>
-      </c>
-      <c r="J63" s="268" t="s">
+      <c r="G63" s="258" t="s">
+        <v>960</v>
+      </c>
+      <c r="I63" s="268" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="280"/>
-      <c r="B64" s="278"/>
-      <c r="H64" s="258" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="281" t="s">
-        <v>929</v>
+    <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="272"/>
+      <c r="B64" s="270"/>
+      <c r="G64" s="258" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B65" s="252">
         <v>1</v>
@@ -25624,20 +25551,20 @@
         <v>858</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="281" t="s">
-        <v>929</v>
+    <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B66" s="252">
         <v>2</v>
       </c>
-      <c r="H66" s="258" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="281" t="s">
-        <v>929</v>
+      <c r="G66" s="258" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B67" s="252">
         <v>3</v>
@@ -25646,58 +25573,58 @@
         <v>895</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="281" t="s">
-        <v>929</v>
+    <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B68" s="252">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="281" t="s">
-        <v>929</v>
+    <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B69" s="262" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C69" s="262"/>
     </row>
-    <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="281" t="s">
-        <v>929</v>
+    <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B70" s="252">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="281" t="s">
-        <v>929</v>
+    <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B71" s="252">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="281" t="s">
-        <v>929</v>
+    <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B72" s="252">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="281" t="s">
-        <v>929</v>
+    <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B73" s="252">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="281" t="s">
-        <v>929</v>
+    <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B74" s="252">
         <v>9</v>
@@ -25710,9 +25637,9 @@
         <v>866</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="281" t="s">
-        <v>929</v>
+    <row r="75" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B75" s="252">
         <v>10</v>
@@ -25728,1458 +25655,1452 @@
         <v>896</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="281" t="s">
-        <v>929</v>
+    <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B76" s="252">
         <v>11</v>
       </c>
-      <c r="J76" s="258" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="281" t="s">
-        <v>929</v>
+      <c r="I76" s="258" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="273" t="s">
+        <v>928</v>
       </c>
       <c r="B77" s="252">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="280" t="s">
-        <v>929</v>
-      </c>
-      <c r="B78" s="278">
+    <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="272" t="s">
+        <v>928</v>
+      </c>
+      <c r="B78" s="270">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="281" t="s">
-        <v>921</v>
+    <row r="79" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="273" t="s">
+        <v>920</v>
       </c>
       <c r="B79" s="252">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="281" t="s">
-        <v>921</v>
+    <row r="80" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="273" t="s">
+        <v>920</v>
       </c>
       <c r="B80" s="252">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="281" t="s">
-        <v>921</v>
+    <row r="81" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="273" t="s">
+        <v>920</v>
       </c>
       <c r="B81" s="252">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="281" t="s">
-        <v>921</v>
+    <row r="82" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="273" t="s">
+        <v>920</v>
       </c>
       <c r="B82" s="252">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="281" t="s">
-        <v>921</v>
+    <row r="83" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="273" t="s">
+        <v>920</v>
       </c>
       <c r="B83" s="252">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="280" t="s">
-        <v>921</v>
-      </c>
-      <c r="B84" s="278">
+    <row r="84" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="272" t="s">
+        <v>920</v>
+      </c>
+      <c r="B84" s="270">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="281" t="s">
-        <v>927</v>
+    <row r="85" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="273" t="s">
+        <v>926</v>
       </c>
       <c r="B85" s="252">
         <v>1</v>
       </c>
-      <c r="H85" s="258" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="281" t="s">
-        <v>927</v>
+      <c r="G85" s="258" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="273" t="s">
+        <v>926</v>
       </c>
       <c r="B86" s="252">
         <v>2</v>
       </c>
       <c r="G86" s="258" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="281" t="s">
-        <v>927</v>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="273" t="s">
+        <v>926</v>
       </c>
       <c r="B87" s="252">
         <v>3</v>
       </c>
       <c r="G87" s="258" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="273"/>
+      <c r="G88" s="258" t="s">
         <v>885</v>
       </c>
-      <c r="H87" s="258" t="s">
+    </row>
+    <row r="89" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B89" s="252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B90" s="252">
+        <v>6</v>
+      </c>
+      <c r="D90" s="258" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B91" s="252">
+        <v>7</v>
+      </c>
+      <c r="G91" s="258" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B92" s="252">
+        <v>8</v>
+      </c>
+      <c r="G92" s="258" t="s">
+        <v>996</v>
+      </c>
+      <c r="I92" s="258" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B93" s="252">
+        <v>14</v>
+      </c>
+      <c r="G93" s="258" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B94" s="252">
+        <v>15</v>
+      </c>
+      <c r="G94" s="258" t="s">
+        <v>980</v>
+      </c>
+      <c r="I94" s="258" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B95" s="252">
+        <v>17</v>
+      </c>
+      <c r="G95" s="258" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B96" s="252">
+        <v>21</v>
+      </c>
+      <c r="I96" s="258" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B97" s="252">
+        <v>23</v>
+      </c>
+      <c r="G97" s="258" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="273" t="s">
+        <v>926</v>
+      </c>
+      <c r="B98" s="252">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="272" t="s">
+        <v>926</v>
+      </c>
+      <c r="B99" s="270">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B100" s="252">
+        <v>1</v>
+      </c>
+      <c r="G100" s="258" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B101" s="252">
+        <v>2</v>
+      </c>
+      <c r="G101" s="258" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B102" s="252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B103" s="252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B104" s="252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B105" s="252">
+        <v>8</v>
+      </c>
+      <c r="G105" s="258" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B106" s="252">
+        <v>9</v>
+      </c>
+      <c r="G106" s="258" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B107" s="252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B108" s="252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B109" s="252">
+        <v>14</v>
+      </c>
+      <c r="G109" s="258" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="273"/>
+      <c r="G110" s="258" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="273"/>
+      <c r="G111" s="258" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B112" s="252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B113" s="252">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B114" s="252">
+        <v>18</v>
+      </c>
+      <c r="G114" s="258" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B115" s="252">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B116" s="252">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B117" s="252">
+        <v>22</v>
+      </c>
+      <c r="G117" s="258" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="252">
+        <v>24</v>
+      </c>
+      <c r="E118" s="258" t="s">
+        <v>873</v>
+      </c>
+      <c r="G118" s="258" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B119" s="252">
+        <v>25</v>
+      </c>
+      <c r="G119" s="258" t="s">
+        <v>942</v>
+      </c>
+      <c r="H119" s="261"/>
+    </row>
+    <row r="120" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="273"/>
+      <c r="G120" s="258" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B88" s="252">
+      <c r="H120" s="261"/>
+    </row>
+    <row r="121" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="273"/>
+      <c r="G121" s="258" t="s">
+        <v>995</v>
+      </c>
+      <c r="H121" s="261"/>
+    </row>
+    <row r="122" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B122" s="252">
+        <v>26</v>
+      </c>
+      <c r="F122" s="258" t="s">
+        <v>876</v>
+      </c>
+      <c r="G122" s="258" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B123" s="252">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B124" s="252">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B125" s="252">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B126" s="252">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B127" s="252">
+        <v>33</v>
+      </c>
+      <c r="G127" s="258" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B128" s="252">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B129" s="252">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B130" s="252">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B131" s="252">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B132" s="252">
+        <v>38</v>
+      </c>
+      <c r="D132" s="258" t="s">
+        <v>864</v>
+      </c>
+      <c r="F132" s="258" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="273" t="s">
+        <v>718</v>
+      </c>
+      <c r="B133" s="252">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="272" t="s">
+        <v>718</v>
+      </c>
+      <c r="B134" s="270">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B135" s="252">
+        <v>3</v>
+      </c>
+      <c r="G135" s="258" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="273"/>
+      <c r="G136" s="258" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="273"/>
+      <c r="G137" s="258" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B138" s="252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B139" s="252">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B89" s="252">
+    <row r="140" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B140" s="252">
         <v>6</v>
       </c>
-      <c r="D89" s="258" t="s">
+      <c r="G140" s="258" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B141" s="252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B142" s="252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B143" s="252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B144" s="252">
+        <v>10</v>
+      </c>
+      <c r="G144" s="258" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B145" s="252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B146" s="252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B147" s="252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B148" s="252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B149" s="252">
+        <v>17</v>
+      </c>
+      <c r="G149" s="258" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B150" s="252">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B151" s="252">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B152" s="252">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B153" s="252">
+        <v>25</v>
+      </c>
+      <c r="G153" s="258" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="273"/>
+      <c r="G154" s="258" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="273" t="s">
+        <v>790</v>
+      </c>
+      <c r="B155" s="252">
+        <v>27</v>
+      </c>
+      <c r="G155" s="258" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="273"/>
+      <c r="G156" s="258" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="273"/>
+      <c r="G157" s="258" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="273"/>
+      <c r="G158" s="258" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="273"/>
+      <c r="G159" s="258" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="273"/>
+      <c r="G160" s="258" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="272"/>
+      <c r="B161" s="270"/>
+      <c r="G161" s="258" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="273" t="s">
+        <v>922</v>
+      </c>
+      <c r="B162" s="252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="272" t="s">
+        <v>922</v>
+      </c>
+      <c r="B163" s="270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B164" s="252">
+        <v>1</v>
+      </c>
+      <c r="F164" s="258" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B90" s="252">
+    <row r="165" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B165" s="252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B166" s="252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B167" s="252">
+        <v>5</v>
+      </c>
+      <c r="G167" s="258" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="273"/>
+      <c r="G168" s="258" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B169" s="252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="273" t="s">
+        <v>923</v>
+      </c>
+      <c r="B170" s="252">
         <v>7</v>
       </c>
-      <c r="G90" s="258" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B91" s="252">
+      <c r="I170" s="258" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B171" s="252">
         <v>8</v>
       </c>
-      <c r="G91" s="258" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J91" s="258" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B92" s="252">
+    </row>
+    <row r="172" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B172" s="252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B173" s="252">
+        <v>10</v>
+      </c>
+      <c r="G173" s="258" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G174" s="258" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B175" s="252">
+        <v>11</v>
+      </c>
+      <c r="G175" s="258" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B176" s="252">
+        <v>12</v>
+      </c>
+      <c r="G176" s="258" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B177" s="252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B178" s="252">
         <v>14</v>
       </c>
-      <c r="H92" s="258" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B93" s="252">
-        <v>15</v>
-      </c>
-      <c r="H93" s="258" t="s">
-        <v>986</v>
-      </c>
-      <c r="J93" s="258" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B94" s="252">
-        <v>17</v>
-      </c>
-      <c r="G94" s="258" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B95" s="252">
-        <v>21</v>
-      </c>
-      <c r="J95" s="258" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B96" s="252">
-        <v>23</v>
-      </c>
-      <c r="G96" s="258" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="281" t="s">
-        <v>927</v>
-      </c>
-      <c r="B97" s="252">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="280" t="s">
-        <v>927</v>
-      </c>
-      <c r="B98" s="278">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B99" s="252">
+      <c r="G178" s="258" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G179" s="258" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G180" s="258" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B181" s="252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B182" s="252">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B183" s="252">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B184" s="252">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B185" s="252">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B186" s="252">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B187" s="252">
+        <v>28</v>
+      </c>
+      <c r="D187" s="258" t="s">
+        <v>859</v>
+      </c>
+      <c r="E187" s="258"/>
+      <c r="F187" s="258" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B188" s="252">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B189" s="252">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B190" s="252">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="252" t="s">
+        <v>923</v>
+      </c>
+      <c r="B191" s="252">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="270" t="s">
+        <v>923</v>
+      </c>
+      <c r="B192" s="270">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="252" t="s">
+        <v>924</v>
+      </c>
+      <c r="B193" s="252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="252" t="s">
+        <v>924</v>
+      </c>
+      <c r="B194" s="252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="270" t="s">
+        <v>924</v>
+      </c>
+      <c r="B195" s="270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="252" t="s">
+        <v>925</v>
+      </c>
+      <c r="B196" s="252">
         <v>1</v>
       </c>
-      <c r="G99" s="258" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B100" s="252">
-        <v>2</v>
-      </c>
-      <c r="H100" s="258" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B101" s="252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B102" s="252">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B103" s="252">
+    </row>
+    <row r="197" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="252" t="s">
+        <v>925</v>
+      </c>
+      <c r="B197" s="252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="252" t="s">
+        <v>925</v>
+      </c>
+      <c r="B198" s="252">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B104" s="252">
-        <v>8</v>
-      </c>
-      <c r="G104" s="258" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H104" s="258" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B105" s="252">
-        <v>9</v>
-      </c>
-      <c r="G105" s="258" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B106" s="252">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B107" s="252">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B108" s="252">
-        <v>14</v>
-      </c>
-      <c r="G108" s="258" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="281"/>
-      <c r="G109" s="258" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="281"/>
-      <c r="G110" s="258" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H110" s="258" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B111" s="252">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B112" s="252">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B113" s="252">
-        <v>18</v>
-      </c>
-      <c r="H113" s="258" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B114" s="252">
+    <row r="199" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="270" t="s">
+        <v>925</v>
+      </c>
+      <c r="B199" s="270">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B115" s="252">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B116" s="252">
-        <v>22</v>
-      </c>
-      <c r="G116" s="258" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B117" s="252">
-        <v>24</v>
-      </c>
-      <c r="E117" s="258" t="s">
-        <v>873</v>
-      </c>
-      <c r="G117" s="258" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B118" s="252">
-        <v>25</v>
-      </c>
-      <c r="H118" s="258" t="s">
-        <v>945</v>
-      </c>
-      <c r="I118" s="261"/>
-    </row>
-    <row r="119" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="281"/>
-      <c r="H119" s="258" t="s">
-        <v>949</v>
-      </c>
-      <c r="I119" s="261"/>
-    </row>
-    <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="281"/>
-      <c r="G120" s="258" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H120" s="261"/>
-      <c r="I120" s="261"/>
-    </row>
-    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B121" s="252">
-        <v>26</v>
-      </c>
-      <c r="F121" s="258" t="s">
-        <v>876</v>
-      </c>
-      <c r="G121" s="258" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B122" s="252">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B123" s="252">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B124" s="252">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B125" s="252">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B126" s="252">
-        <v>33</v>
-      </c>
-      <c r="G126" s="258" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B127" s="252">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B128" s="252">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B129" s="252">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B130" s="252">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B131" s="252">
-        <v>38</v>
-      </c>
-      <c r="D131" s="258" t="s">
-        <v>864</v>
-      </c>
-      <c r="F131" s="258" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="281" t="s">
-        <v>718</v>
-      </c>
-      <c r="B132" s="252">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="280" t="s">
-        <v>718</v>
-      </c>
-      <c r="B133" s="278">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B134" s="252">
-        <v>3</v>
-      </c>
-      <c r="H134" s="258" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="281"/>
-      <c r="H135" s="258" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="281"/>
-      <c r="G136" s="258" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H136" s="258" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B137" s="252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B138" s="252">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B139" s="252">
-        <v>6</v>
-      </c>
-      <c r="G139" s="258" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H139" s="258" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B140" s="252">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B141" s="252">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B142" s="252">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B143" s="252">
-        <v>10</v>
-      </c>
-      <c r="H143" s="258" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B144" s="252">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B145" s="252">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B146" s="252">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B147" s="252">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B148" s="252">
-        <v>17</v>
-      </c>
-      <c r="G148" s="258" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B149" s="252">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B150" s="252">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B151" s="252">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B152" s="252">
-        <v>25</v>
-      </c>
-      <c r="G152" s="258" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="281"/>
-      <c r="G153" s="258" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="281" t="s">
-        <v>790</v>
-      </c>
-      <c r="B154" s="252">
-        <v>27</v>
-      </c>
-      <c r="G154" s="258" t="s">
-        <v>916</v>
-      </c>
-      <c r="H154" s="258" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="281"/>
-      <c r="G155" s="258" t="s">
-        <v>902</v>
-      </c>
-      <c r="H155" s="258" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="281"/>
-      <c r="G156" s="258" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H156" s="258" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="281"/>
-      <c r="G157" s="258" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="280"/>
-      <c r="B158" s="278"/>
-      <c r="G158" s="258" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="281" t="s">
-        <v>923</v>
-      </c>
-      <c r="B159" s="252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="280" t="s">
-        <v>923</v>
-      </c>
-      <c r="B160" s="278">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B161" s="252">
-        <v>1</v>
-      </c>
-      <c r="F161" s="258" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B162" s="252">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B163" s="252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B164" s="252">
-        <v>5</v>
-      </c>
-      <c r="G164" s="258" t="s">
-        <v>889</v>
-      </c>
-      <c r="H164" s="258" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B165" s="252">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="281" t="s">
-        <v>924</v>
-      </c>
-      <c r="B166" s="252">
-        <v>7</v>
-      </c>
-      <c r="J166" s="258" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B167" s="252">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B168" s="252">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B169" s="252">
-        <v>10</v>
-      </c>
-      <c r="G169" s="258" t="s">
-        <v>890</v>
-      </c>
-      <c r="H169" s="258" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B170" s="252">
-        <v>11</v>
-      </c>
-      <c r="G170" s="258" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H170" s="258" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B171" s="252">
-        <v>12</v>
-      </c>
-      <c r="G171" s="258" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H171" s="258" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B172" s="252">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B173" s="252">
-        <v>14</v>
-      </c>
-      <c r="G173" s="258" t="s">
-        <v>891</v>
-      </c>
-      <c r="H173" s="258" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H174" s="258" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B175" s="252">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B176" s="252">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B177" s="252">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B178" s="252">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B179" s="252">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B180" s="252">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B181" s="252">
-        <v>28</v>
-      </c>
-      <c r="D181" s="258" t="s">
-        <v>859</v>
-      </c>
-      <c r="E181" s="258"/>
-      <c r="F181" s="258" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B182" s="252">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B183" s="252">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B184" s="252">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="252" t="s">
-        <v>924</v>
-      </c>
-      <c r="B185" s="252">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="278" t="s">
-        <v>924</v>
-      </c>
-      <c r="B186" s="278">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="252" t="s">
-        <v>925</v>
-      </c>
-      <c r="B187" s="252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="252" t="s">
-        <v>925</v>
-      </c>
-      <c r="B188" s="252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="278" t="s">
-        <v>925</v>
-      </c>
-      <c r="B189" s="278">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="252" t="s">
-        <v>926</v>
-      </c>
-      <c r="B190" s="252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="252" t="s">
-        <v>926</v>
-      </c>
-      <c r="B191" s="252">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="252" t="s">
-        <v>926</v>
-      </c>
-      <c r="B192" s="252">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="278" t="s">
-        <v>926</v>
-      </c>
-      <c r="B193" s="278">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B194" s="252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B195" s="252">
-        <v>3</v>
-      </c>
-      <c r="G195" s="258" t="s">
-        <v>887</v>
-      </c>
-      <c r="H195" s="258" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B196" s="252">
-        <v>4</v>
-      </c>
-      <c r="G196" s="258" t="s">
-        <v>997</v>
-      </c>
-      <c r="H196" s="258" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B197" s="252">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B198" s="252">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B199" s="252">
-        <v>7</v>
-      </c>
-      <c r="G199" s="258" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="252" t="s">
         <v>751</v>
       </c>
       <c r="B200" s="252">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="252" t="s">
         <v>751</v>
       </c>
       <c r="B201" s="252">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G201" s="258" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="252" t="s">
-        <v>751</v>
-      </c>
-      <c r="B202" s="252">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="258" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="252" t="s">
         <v>751</v>
       </c>
       <c r="B203" s="252">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G203" s="258" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="252" t="s">
         <v>751</v>
       </c>
       <c r="B204" s="252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B205" s="252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B206" s="252">
+        <v>7</v>
+      </c>
+      <c r="G206" s="258" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B207" s="252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B208" s="252">
+        <v>10</v>
+      </c>
+      <c r="G208" s="258" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B209" s="252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B210" s="252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="252" t="s">
+        <v>751</v>
+      </c>
+      <c r="B211" s="252">
         <v>13</v>
       </c>
-      <c r="J204" s="265" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="278" t="s">
+      <c r="I211" s="265" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="270" t="s">
         <v>751</v>
       </c>
-      <c r="B205" s="278">
+      <c r="B212" s="270">
         <v>14</v>
       </c>
-      <c r="H205" s="258" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="252" t="s">
+      <c r="G212" s="258" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="252" t="s">
         <v>698</v>
       </c>
-      <c r="B206" s="252">
+      <c r="B213" s="252">
         <v>1</v>
       </c>
-      <c r="J206" s="258" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="252" t="s">
+      <c r="I213" s="258" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="252" t="s">
         <v>698</v>
       </c>
-      <c r="B207" s="252">
+      <c r="B214" s="252">
         <v>2</v>
       </c>
-      <c r="H207" s="258" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H208" s="258" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="252" t="s">
+      <c r="G214" s="258" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="258" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="252" t="s">
         <v>698</v>
-      </c>
-      <c r="B209" s="252">
-        <v>3</v>
-      </c>
-      <c r="H209" s="258" t="s">
-        <v>939</v>
-      </c>
-      <c r="J209" s="258" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="252" t="s">
-        <v>698</v>
-      </c>
-      <c r="B210" s="252">
-        <v>4</v>
-      </c>
-      <c r="G210" s="258" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H210" s="258" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="252" t="s">
-        <v>698</v>
-      </c>
-      <c r="B211" s="252">
-        <v>5</v>
-      </c>
-      <c r="H211" s="258" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="252" t="s">
-        <v>698</v>
-      </c>
-      <c r="B212" s="252">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="278" t="s">
-        <v>698</v>
-      </c>
-      <c r="B213" s="278">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="252" t="s">
-        <v>680</v>
-      </c>
-      <c r="B214" s="252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="252" t="s">
-        <v>680</v>
-      </c>
-      <c r="B215" s="252">
-        <v>2</v>
-      </c>
-      <c r="I215" s="259" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="252" t="s">
-        <v>680</v>
       </c>
       <c r="B216" s="252">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G216" s="258" t="s">
+        <v>936</v>
+      </c>
+      <c r="I216" s="258" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="252" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B217" s="252">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G217" s="258" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="252" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B218" s="252">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G218" s="258" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="252" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B219" s="252">
         <v>6</v>
       </c>
-      <c r="H219" s="258" t="s">
-        <v>958</v>
-      </c>
-      <c r="J219" s="282" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="252" t="s">
-        <v>680</v>
-      </c>
-      <c r="B220" s="252">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="270" t="s">
+        <v>698</v>
+      </c>
+      <c r="B220" s="270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="252" t="s">
         <v>680</v>
       </c>
       <c r="B221" s="252">
-        <v>8</v>
-      </c>
-      <c r="I221" s="259" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="252" t="s">
         <v>680</v>
       </c>
       <c r="B222" s="252">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H222" s="259" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="252" t="s">
         <v>680</v>
       </c>
       <c r="B223" s="252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B224" s="252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B225" s="252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B226" s="252">
+        <v>6</v>
+      </c>
+      <c r="G226" s="258" t="s">
+        <v>954</v>
+      </c>
+      <c r="I226" s="274" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B227" s="252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B228" s="252">
+        <v>8</v>
+      </c>
+      <c r="H228" s="259" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B229" s="252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="252" t="s">
+        <v>680</v>
+      </c>
+      <c r="B230" s="252">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="278" t="s">
+    <row r="231" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="270" t="s">
         <v>680</v>
       </c>
-      <c r="B224" s="278">
+      <c r="B231" s="270">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="252" t="s">
+    <row r="232" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="252" t="s">
         <v>883</v>
       </c>
-      <c r="B225" s="252">
+      <c r="B232" s="252">
         <v>3</v>
       </c>
-      <c r="H225" s="258" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="252" t="s">
+      <c r="G232" s="258" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="252" t="s">
         <v>883</v>
       </c>
-      <c r="B226" s="252">
+      <c r="B233" s="252">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="278" t="s">
+    <row r="234" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="270" t="s">
         <v>883</v>
       </c>
-      <c r="B227" s="278">
+      <c r="B234" s="270">
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="252" t="s">
-        <v>998</v>
-      </c>
-      <c r="B228" s="252">
+    <row r="235" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="252" t="s">
+        <v>991</v>
+      </c>
+      <c r="B235" s="252">
         <v>18</v>
       </c>
-      <c r="H228" s="258" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="278" t="s">
-        <v>998</v>
-      </c>
-      <c r="B229" s="278">
+      <c r="G235" s="258" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="269" t="s">
+        <v>991</v>
+      </c>
+      <c r="B236" s="269">
         <v>20</v>
       </c>
-      <c r="G229" s="258" t="s">
-        <v>909</v>
-      </c>
-      <c r="H229" s="258" t="s">
-        <v>970</v>
+      <c r="G236" s="258" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="252" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="270"/>
+      <c r="B237" s="270"/>
+      <c r="G237" s="258" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I229" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:H236" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -27188,10 +27109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:L50"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -27199,546 +27120,485 @@
     <col min="1" max="1" width="11.5703125" style="266"/>
     <col min="2" max="2" width="21" style="266" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" style="266" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="266" customWidth="1"/>
-    <col min="5" max="5" width="21" style="266" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="266"/>
-    <col min="8" max="8" width="17.5703125" style="266" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="266"/>
-    <col min="11" max="11" width="37.5703125" style="266" customWidth="1"/>
-    <col min="12" max="12" width="15" style="266" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="266"/>
+    <col min="4" max="4" width="21" style="266" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="266"/>
+    <col min="7" max="7" width="17.5703125" style="266" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="266"/>
+    <col min="10" max="10" width="33" style="266" customWidth="1"/>
+    <col min="11" max="11" width="15" style="266" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="266"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="266" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E2" s="266" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I2" s="267">
+        <v>1017</v>
+      </c>
+      <c r="D2" s="266" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G2" s="267">
         <v>9674</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="285">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="266" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>1039</v>
+        <v>1019</v>
+      </c>
+      <c r="D4" s="266" t="s">
+        <v>1044</v>
       </c>
       <c r="E4" s="266" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F4" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H4" s="266" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K4" s="283" t="s">
-        <v>919</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G4" s="266" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J4" s="275" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="266" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C5" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D5" s="266" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E5" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G5" s="266" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H5" s="266" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J5" s="275" t="s">
+        <v>910</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="266" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C6" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D6" s="266" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G6" s="266" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H6" s="266" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J6" s="275" t="s">
+        <v>882</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="266" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C7" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D7" s="266" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E7" s="266" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G7" s="266" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J7" s="275" t="s">
+        <v>884</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="266" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C8" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D8" s="266" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E8" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G8" s="266" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H8" s="266" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J8" s="276" t="s">
+        <v>997</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="266" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C5" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E5" s="266" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F5" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H5" s="266" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I5" s="266" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K5" s="283" t="s">
-        <v>882</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="266" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C6" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E6" s="266" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H6" s="266" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I6" s="266" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K6" s="283" t="s">
-        <v>884</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="266" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C7" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E7" s="266" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F7" s="266" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H7" s="266" t="s">
-        <v>1106</v>
-      </c>
-      <c r="K7" s="283" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="266" t="s">
         <v>1024</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="266" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C8" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E8" s="266" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F8" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H8" s="266" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I8" s="266" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K8" s="283" t="s">
-        <v>911</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="266" t="s">
-        <v>1044</v>
-      </c>
       <c r="C9" s="266" t="s">
-        <v>1051</v>
+        <v>1031</v>
+      </c>
+      <c r="D9" s="266" t="s">
+        <v>1049</v>
       </c>
       <c r="E9" s="266" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F9" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H9" s="266" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K9" s="283" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+      <c r="G9" s="266" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J9" s="275" t="s">
+        <v>918</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="266" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="C10" s="266" t="s">
         <v>804</v>
       </c>
+      <c r="D10" s="266" t="s">
+        <v>1050</v>
+      </c>
       <c r="E10" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G10" s="266" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H10" s="266" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J10" s="276" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="266" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C11" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D11" s="266" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E11" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G11" s="266" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H11" s="266" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J11" s="276" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="266" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C12" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D12" s="266" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E12" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G12" s="266" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H12" s="266" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J12" s="276" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="266" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C13" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G13" s="266" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H13" s="266" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J13" s="276" t="s">
+        <v>999</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="266" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G14" s="266" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H14" s="266" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J14" s="275" t="s">
+        <v>907</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="266" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C15" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G15" s="266" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H15" s="266" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J15" s="276" t="s">
+        <v>994</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="266" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C16" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G16" s="266" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H16" s="266" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J16" s="275" t="s">
+        <v>956</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="266" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C17" s="266" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G17" s="266" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H17" s="266" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J17" s="275" t="s">
+        <v>989</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="266" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C18" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G18" s="266" t="s">
         <v>1070</v>
       </c>
-      <c r="F10" s="266" t="s">
+      <c r="H18" s="266" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J18" s="275" t="s">
+        <v>952</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="266" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C19" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G19" s="266" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J19" s="275" t="s">
+        <v>982</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="266" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C20" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G20" s="266" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H20" s="266" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J20" s="275" t="s">
+        <v>953</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="266" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C21" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G21" s="266" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H21" s="266" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J21" s="275" t="s">
+        <v>986</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="266" t="s">
         <v>1039</v>
       </c>
-      <c r="H10" s="266" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I10" s="266" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K10" s="283" t="s">
-        <v>908</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="266" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C11" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E11" s="266" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F11" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H11" s="266" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I11" s="266" t="s">
-        <v>1108</v>
-      </c>
-      <c r="K11" s="284"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="266" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C12" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E12" s="266" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F12" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H12" s="266" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I12" s="266" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K12" s="284"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="266" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C13" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H13" s="266" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I13" s="266" t="s">
-        <v>1110</v>
-      </c>
-      <c r="K13" s="284"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="266" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C14" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H14" s="266" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I14" s="266" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K14" s="284"/>
-      <c r="L14" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="266" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C15" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H15" s="266" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I15" s="266" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K15" s="284"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="266" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C16" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H16" s="266" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I16" s="266" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K16" s="283" t="s">
-        <v>956</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="266" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C17" s="266" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H17" s="266" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I17" s="266" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K17" s="283" t="s">
-        <v>957</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="C22" s="266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G22" s="266" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H22" s="266" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J22" s="276" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="266" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C18" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H18" s="266" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I18" s="266" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K18" s="283" t="s">
-        <v>996</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="266" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C19" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H19" s="266" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K19" s="283" t="s">
-        <v>959</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="266" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C20" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H20" s="266" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I20" s="266" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K20" s="283" t="s">
-        <v>988</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="266" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C21" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H21" s="266" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I21" s="266" t="s">
-        <v>1102</v>
-      </c>
-      <c r="K21" s="283" t="s">
-        <v>961</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="266" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C22" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H22" s="266" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I22" s="266" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K22" s="283"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="266" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C23" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K23" s="283" t="s">
-        <v>962</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="266" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="C24" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K24" s="283" t="s">
-        <v>992</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="266" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="C25" s="266" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K25" s="283" t="s">
-        <v>993</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="266" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K30" s="285" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K31" s="285" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K32" s="285" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K33" s="285" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K34" s="285" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K35" s="285" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K36" s="285" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K37" s="285" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/bazy/pakosc/numeracja.xlsx
+++ b/bazy/pakosc/numeracja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.git\homepage\bazy\pakosc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D6D40-22B7-4B27-A012-765E4BEF104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9474F4-9CC0-4E7E-AC6D-1E43F677D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" tabRatio="820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magistrat do 1949" sheetId="16" r:id="rId1"/>
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7615" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7626" uniqueCount="2561">
   <si>
     <t>Antczak</t>
   </si>
@@ -7414,13 +7414,6 @@
     <t>żyd</t>
   </si>
   <si>
-    <t>Przynależność partyjna</t>
-  </si>
-  <si>
-    <t>do końca 1906
-do końca 1912</t>
-  </si>
-  <si>
     <t>do końca 1912
 do końca 1918</t>
   </si>
@@ -7433,16 +7426,8 @@
 do końca 1920</t>
   </si>
   <si>
-    <t>do końca 1904
-do końca 1910</t>
-  </si>
-  <si>
     <t>od 01.02.1908 do końca 1910
 do końca 1916</t>
-  </si>
-  <si>
-    <t>do końca 1904
-do końca 1910 przerwana</t>
   </si>
   <si>
     <t>do końca 1910
@@ -7454,10 +7439,6 @@
 22.02.1916 zmarł</t>
   </si>
   <si>
-    <t>do końca 1908
-do końca 1914</t>
-  </si>
-  <si>
     <t>Kiełczewski, ks.</t>
   </si>
   <si>
@@ -8560,6 +8541,48 @@
   </si>
   <si>
     <t>wrz. 1937</t>
+  </si>
+  <si>
+    <t>od 26.11.1904 do końca 1910
+do końca 1916</t>
+  </si>
+  <si>
+    <t>od 26.11.1904 do końca 1908
+do końca 1914</t>
+  </si>
+  <si>
+    <t>Posiedziciel ziemski</t>
+  </si>
+  <si>
+    <t>do końca 1904
+od 26.11.1904 do końca 1910</t>
+  </si>
+  <si>
+    <t>do końca 1904
+od 26.11.1904 do końca 1910 przerwana</t>
+  </si>
+  <si>
+    <t>od 26.11.1904 do końca 1906
+do końca 1912</t>
+  </si>
+  <si>
+    <t>Polak</t>
+  </si>
+  <si>
+    <t>Przynależność partyjna / Narodowość</t>
+  </si>
+  <si>
+    <t>Żyd</t>
+  </si>
+  <si>
+    <t>Niemiec</t>
+  </si>
+  <si>
+    <t>pracuje 26.11.1904
+01.03.1923</t>
+  </si>
+  <si>
+    <t>Nauczyciele (poza Magistratem)</t>
   </si>
 </sst>
 </file>
@@ -8724,7 +8747,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8806,6 +8829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9860,7 +9889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="634">
+  <cellXfs count="639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11592,16 +11621,13 @@
     <xf numFmtId="2" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11610,10 +11636,70 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11646,54 +11732,6 @@
     <xf numFmtId="14" fontId="11" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11721,22 +11759,28 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_Zeszyt1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11752,9 +11796,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11792,7 +11836,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11898,7 +11942,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12051,15 +12095,15 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:CY162"/>
+  <dimension ref="A1:CY166"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="103" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="179" bestFit="1" customWidth="1"/>
@@ -12122,106 +12166,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="610">
+      <c r="B1" s="606"/>
+      <c r="C1" s="606"/>
+      <c r="D1" s="606"/>
+      <c r="E1" s="606"/>
+      <c r="F1" s="606"/>
+      <c r="G1" s="606"/>
+      <c r="H1" s="598">
         <v>10837</v>
       </c>
-      <c r="I1" s="611"/>
-      <c r="J1" s="611"/>
-      <c r="K1" s="612"/>
-      <c r="L1" s="610">
+      <c r="I1" s="599"/>
+      <c r="J1" s="599"/>
+      <c r="K1" s="603"/>
+      <c r="L1" s="598">
         <v>10860</v>
       </c>
-      <c r="M1" s="611"/>
-      <c r="N1" s="612"/>
-      <c r="O1" s="611">
+      <c r="M1" s="599"/>
+      <c r="N1" s="603"/>
+      <c r="O1" s="599">
         <v>11324</v>
       </c>
-      <c r="P1" s="611"/>
-      <c r="Q1" s="611"/>
-      <c r="R1" s="611"/>
-      <c r="S1" s="610">
+      <c r="P1" s="599"/>
+      <c r="Q1" s="599"/>
+      <c r="R1" s="599"/>
+      <c r="S1" s="598">
         <v>11597</v>
       </c>
-      <c r="T1" s="611"/>
-      <c r="U1" s="611"/>
-      <c r="V1" s="611"/>
-      <c r="W1" s="611"/>
-      <c r="X1" s="611"/>
-      <c r="Y1" s="612"/>
+      <c r="T1" s="599"/>
+      <c r="U1" s="599"/>
+      <c r="V1" s="599"/>
+      <c r="W1" s="599"/>
+      <c r="X1" s="599"/>
+      <c r="Y1" s="603"/>
       <c r="Z1" s="243">
         <v>11749</v>
       </c>
-      <c r="AA1" s="593">
+      <c r="AA1" s="601">
         <v>1935</v>
       </c>
-      <c r="AB1" s="594"/>
-      <c r="AC1" s="594"/>
-      <c r="AD1" s="613"/>
-      <c r="AE1" s="610">
+      <c r="AB1" s="605"/>
+      <c r="AC1" s="605"/>
+      <c r="AD1" s="602"/>
+      <c r="AE1" s="598">
         <v>13089</v>
       </c>
-      <c r="AF1" s="611"/>
-      <c r="AG1" s="611"/>
-      <c r="AH1" s="611"/>
-      <c r="AI1" s="611"/>
-      <c r="AJ1" s="611"/>
-      <c r="AK1" s="611"/>
-      <c r="AL1" s="611"/>
-      <c r="AM1" s="611"/>
-      <c r="AN1" s="595" t="s">
+      <c r="AF1" s="599"/>
+      <c r="AG1" s="599"/>
+      <c r="AH1" s="599"/>
+      <c r="AI1" s="599"/>
+      <c r="AJ1" s="599"/>
+      <c r="AK1" s="599"/>
+      <c r="AL1" s="599"/>
+      <c r="AM1" s="599"/>
+      <c r="AN1" s="614" t="s">
         <v>723</v>
       </c>
-      <c r="AO1" s="601"/>
-      <c r="AP1" s="593">
+      <c r="AO1" s="620"/>
+      <c r="AP1" s="601">
         <v>1937</v>
       </c>
-      <c r="AQ1" s="594"/>
-      <c r="AR1" s="594"/>
-      <c r="AS1" s="594"/>
-      <c r="AT1" s="595" t="s">
+      <c r="AQ1" s="605"/>
+      <c r="AR1" s="605"/>
+      <c r="AS1" s="605"/>
+      <c r="AT1" s="614" t="s">
         <v>723</v>
       </c>
-      <c r="AU1" s="596"/>
-      <c r="AV1" s="597"/>
-      <c r="AW1" s="603">
+      <c r="AU1" s="615"/>
+      <c r="AV1" s="616"/>
+      <c r="AW1" s="622">
         <v>13940</v>
       </c>
-      <c r="AX1" s="588"/>
-      <c r="AY1" s="588"/>
-      <c r="AZ1" s="588"/>
-      <c r="BA1" s="588"/>
-      <c r="BB1" s="588"/>
-      <c r="BC1" s="588"/>
-      <c r="BD1" s="604"/>
-      <c r="BE1" s="587">
+      <c r="AX1" s="612"/>
+      <c r="AY1" s="612"/>
+      <c r="AZ1" s="612"/>
+      <c r="BA1" s="612"/>
+      <c r="BB1" s="612"/>
+      <c r="BC1" s="612"/>
+      <c r="BD1" s="623"/>
+      <c r="BE1" s="611">
         <v>14154</v>
       </c>
-      <c r="BF1" s="588"/>
-      <c r="BG1" s="589"/>
+      <c r="BF1" s="612"/>
+      <c r="BG1" s="613"/>
       <c r="BH1" s="345" t="s">
         <v>2178</v>
       </c>
-      <c r="BI1" s="614">
+      <c r="BI1" s="604">
         <v>1945</v>
       </c>
-      <c r="BJ1" s="594"/>
-      <c r="BK1" s="613"/>
-      <c r="BL1" s="594">
+      <c r="BJ1" s="605"/>
+      <c r="BK1" s="602"/>
+      <c r="BL1" s="605">
         <v>1945</v>
       </c>
-      <c r="BM1" s="594"/>
-      <c r="BN1" s="594"/>
-      <c r="BO1" s="594"/>
-      <c r="BP1" s="594"/>
-      <c r="BQ1" s="594"/>
-      <c r="BR1" s="594"/>
-      <c r="BS1" s="594"/>
+      <c r="BM1" s="605"/>
+      <c r="BN1" s="605"/>
+      <c r="BO1" s="605"/>
+      <c r="BP1" s="605"/>
+      <c r="BQ1" s="605"/>
+      <c r="BR1" s="605"/>
+      <c r="BS1" s="605"/>
       <c r="BT1" s="254">
         <v>16792</v>
       </c>
@@ -12240,158 +12284,158 @@
       <c r="BY1" s="254" t="s">
         <v>723</v>
       </c>
-      <c r="BZ1" s="593" t="s">
+      <c r="BZ1" s="601" t="s">
         <v>1126</v>
       </c>
-      <c r="CA1" s="594"/>
-      <c r="CB1" s="613"/>
+      <c r="CA1" s="605"/>
+      <c r="CB1" s="602"/>
       <c r="CC1" s="229">
         <v>16970</v>
       </c>
-      <c r="CD1" s="610" t="s">
+      <c r="CD1" s="598" t="s">
         <v>1801</v>
       </c>
-      <c r="CE1" s="611"/>
-      <c r="CF1" s="612"/>
-      <c r="CG1" s="611">
+      <c r="CE1" s="599"/>
+      <c r="CF1" s="603"/>
+      <c r="CG1" s="599">
         <v>17616</v>
       </c>
-      <c r="CH1" s="611"/>
-      <c r="CI1" s="611"/>
-      <c r="CJ1" s="615">
+      <c r="CH1" s="599"/>
+      <c r="CI1" s="599"/>
+      <c r="CJ1" s="596">
         <v>1948</v>
       </c>
-      <c r="CK1" s="616"/>
-      <c r="CL1" s="610">
+      <c r="CK1" s="597"/>
+      <c r="CL1" s="598">
         <v>17885</v>
       </c>
-      <c r="CM1" s="616"/>
-      <c r="CN1" s="611">
+      <c r="CM1" s="597"/>
+      <c r="CN1" s="599">
         <v>17899</v>
       </c>
-      <c r="CO1" s="617"/>
-      <c r="CP1" s="617"/>
-      <c r="CQ1" s="617"/>
-      <c r="CR1" s="617"/>
-      <c r="CS1" s="616"/>
+      <c r="CO1" s="600"/>
+      <c r="CP1" s="600"/>
+      <c r="CQ1" s="600"/>
+      <c r="CR1" s="600"/>
+      <c r="CS1" s="597"/>
       <c r="CT1" s="255">
         <v>1949</v>
       </c>
       <c r="CU1" s="229">
         <v>18050</v>
       </c>
-      <c r="CV1" s="593">
+      <c r="CV1" s="601">
         <v>1949</v>
       </c>
-      <c r="CW1" s="613"/>
-      <c r="CX1" s="611">
+      <c r="CW1" s="602"/>
+      <c r="CX1" s="599">
         <v>18203</v>
       </c>
-      <c r="CY1" s="612"/>
+      <c r="CY1" s="603"/>
     </row>
     <row r="2" spans="1:103" s="139" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="605" t="s">
+      <c r="B2" s="607" t="s">
         <v>1557</v>
       </c>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="591" t="s">
+      <c r="C2" s="607"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="607"/>
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="590" t="s">
         <v>1141</v>
       </c>
-      <c r="I2" s="590"/>
-      <c r="J2" s="590"/>
-      <c r="K2" s="592"/>
-      <c r="L2" s="606" t="s">
+      <c r="I2" s="592"/>
+      <c r="J2" s="592"/>
+      <c r="K2" s="591"/>
+      <c r="L2" s="608" t="s">
         <v>1767</v>
       </c>
-      <c r="M2" s="607"/>
-      <c r="N2" s="608"/>
-      <c r="O2" s="590" t="s">
+      <c r="M2" s="609"/>
+      <c r="N2" s="610"/>
+      <c r="O2" s="592" t="s">
         <v>1434</v>
       </c>
-      <c r="P2" s="590"/>
-      <c r="Q2" s="590"/>
-      <c r="R2" s="590"/>
-      <c r="S2" s="591" t="s">
+      <c r="P2" s="592"/>
+      <c r="Q2" s="592"/>
+      <c r="R2" s="592"/>
+      <c r="S2" s="590" t="s">
         <v>1141</v>
       </c>
-      <c r="T2" s="590"/>
-      <c r="U2" s="590"/>
-      <c r="V2" s="590"/>
-      <c r="W2" s="590"/>
-      <c r="X2" s="590"/>
-      <c r="Y2" s="592"/>
+      <c r="T2" s="592"/>
+      <c r="U2" s="592"/>
+      <c r="V2" s="592"/>
+      <c r="W2" s="592"/>
+      <c r="X2" s="592"/>
+      <c r="Y2" s="591"/>
       <c r="Z2" s="206" t="s">
         <v>1098</v>
       </c>
-      <c r="AA2" s="606" t="s">
+      <c r="AA2" s="608" t="s">
         <v>1141</v>
       </c>
-      <c r="AB2" s="607"/>
-      <c r="AC2" s="607"/>
-      <c r="AD2" s="608"/>
-      <c r="AE2" s="591" t="s">
+      <c r="AB2" s="609"/>
+      <c r="AC2" s="609"/>
+      <c r="AD2" s="610"/>
+      <c r="AE2" s="590" t="s">
         <v>1141</v>
       </c>
-      <c r="AF2" s="590"/>
-      <c r="AG2" s="590"/>
-      <c r="AH2" s="590"/>
-      <c r="AI2" s="590"/>
-      <c r="AJ2" s="590"/>
-      <c r="AK2" s="590"/>
-      <c r="AL2" s="590"/>
-      <c r="AM2" s="590"/>
-      <c r="AN2" s="591" t="s">
+      <c r="AF2" s="592"/>
+      <c r="AG2" s="592"/>
+      <c r="AH2" s="592"/>
+      <c r="AI2" s="592"/>
+      <c r="AJ2" s="592"/>
+      <c r="AK2" s="592"/>
+      <c r="AL2" s="592"/>
+      <c r="AM2" s="592"/>
+      <c r="AN2" s="590" t="s">
         <v>1098</v>
       </c>
-      <c r="AO2" s="592"/>
-      <c r="AP2" s="591" t="s">
+      <c r="AO2" s="591"/>
+      <c r="AP2" s="590" t="s">
         <v>1141</v>
       </c>
-      <c r="AQ2" s="590"/>
-      <c r="AR2" s="590"/>
-      <c r="AS2" s="590"/>
-      <c r="AT2" s="598" t="s">
+      <c r="AQ2" s="592"/>
+      <c r="AR2" s="592"/>
+      <c r="AS2" s="592"/>
+      <c r="AT2" s="617" t="s">
         <v>1098</v>
       </c>
-      <c r="AU2" s="599"/>
-      <c r="AV2" s="600"/>
-      <c r="AW2" s="598" t="s">
+      <c r="AU2" s="618"/>
+      <c r="AV2" s="619"/>
+      <c r="AW2" s="617" t="s">
         <v>1141</v>
       </c>
-      <c r="AX2" s="599"/>
-      <c r="AY2" s="599"/>
-      <c r="AZ2" s="599"/>
-      <c r="BA2" s="599"/>
-      <c r="BB2" s="599"/>
-      <c r="BC2" s="599"/>
-      <c r="BD2" s="602"/>
-      <c r="BE2" s="590" t="s">
+      <c r="AX2" s="618"/>
+      <c r="AY2" s="618"/>
+      <c r="AZ2" s="618"/>
+      <c r="BA2" s="618"/>
+      <c r="BB2" s="618"/>
+      <c r="BC2" s="618"/>
+      <c r="BD2" s="621"/>
+      <c r="BE2" s="592" t="s">
         <v>1141</v>
       </c>
-      <c r="BF2" s="590"/>
-      <c r="BG2" s="590"/>
+      <c r="BF2" s="592"/>
+      <c r="BG2" s="592"/>
       <c r="BH2" s="346" t="s">
         <v>1098</v>
       </c>
-      <c r="BI2" s="618" t="s">
+      <c r="BI2" s="595" t="s">
         <v>1141</v>
       </c>
-      <c r="BJ2" s="590"/>
-      <c r="BK2" s="592"/>
-      <c r="BL2" s="590" t="s">
+      <c r="BJ2" s="592"/>
+      <c r="BK2" s="591"/>
+      <c r="BL2" s="592" t="s">
         <v>1434</v>
       </c>
-      <c r="BM2" s="590"/>
-      <c r="BN2" s="590"/>
-      <c r="BO2" s="590"/>
-      <c r="BP2" s="590"/>
-      <c r="BQ2" s="590"/>
-      <c r="BR2" s="590"/>
-      <c r="BS2" s="590"/>
+      <c r="BM2" s="592"/>
+      <c r="BN2" s="592"/>
+      <c r="BO2" s="592"/>
+      <c r="BP2" s="592"/>
+      <c r="BQ2" s="592"/>
+      <c r="BR2" s="592"/>
+      <c r="BS2" s="592"/>
       <c r="BT2" s="146" t="s">
         <v>1069</v>
       </c>
@@ -12410,54 +12454,54 @@
       <c r="BY2" s="146" t="s">
         <v>1139</v>
       </c>
-      <c r="BZ2" s="591" t="s">
+      <c r="BZ2" s="590" t="s">
         <v>1124</v>
       </c>
-      <c r="CA2" s="590"/>
-      <c r="CB2" s="592"/>
+      <c r="CA2" s="592"/>
+      <c r="CB2" s="591"/>
       <c r="CC2" s="140" t="s">
         <v>1093</v>
       </c>
-      <c r="CD2" s="591" t="s">
+      <c r="CD2" s="590" t="s">
         <v>1079</v>
       </c>
-      <c r="CE2" s="590"/>
-      <c r="CF2" s="592"/>
-      <c r="CG2" s="590" t="s">
+      <c r="CE2" s="592"/>
+      <c r="CF2" s="591"/>
+      <c r="CG2" s="592" t="s">
         <v>1141</v>
       </c>
-      <c r="CH2" s="590"/>
-      <c r="CI2" s="590"/>
-      <c r="CJ2" s="591" t="s">
+      <c r="CH2" s="592"/>
+      <c r="CI2" s="592"/>
+      <c r="CJ2" s="590" t="s">
         <v>1391</v>
       </c>
-      <c r="CK2" s="592"/>
-      <c r="CL2" s="591" t="s">
+      <c r="CK2" s="591"/>
+      <c r="CL2" s="590" t="s">
         <v>1401</v>
       </c>
-      <c r="CM2" s="592"/>
-      <c r="CN2" s="590" t="s">
+      <c r="CM2" s="591"/>
+      <c r="CN2" s="592" t="s">
         <v>1485</v>
       </c>
-      <c r="CO2" s="590"/>
-      <c r="CP2" s="590"/>
-      <c r="CQ2" s="590"/>
-      <c r="CR2" s="590"/>
-      <c r="CS2" s="592"/>
+      <c r="CO2" s="592"/>
+      <c r="CP2" s="592"/>
+      <c r="CQ2" s="592"/>
+      <c r="CR2" s="592"/>
+      <c r="CS2" s="591"/>
       <c r="CT2" s="146" t="s">
         <v>1098</v>
       </c>
       <c r="CU2" s="140" t="s">
         <v>1098</v>
       </c>
-      <c r="CV2" s="619" t="s">
+      <c r="CV2" s="593" t="s">
         <v>1098</v>
       </c>
-      <c r="CW2" s="620"/>
-      <c r="CX2" s="590" t="s">
+      <c r="CW2" s="594"/>
+      <c r="CX2" s="592" t="s">
         <v>1098</v>
       </c>
-      <c r="CY2" s="592"/>
+      <c r="CY2" s="591"/>
     </row>
     <row r="3" spans="1:103" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
@@ -12476,10 +12520,10 @@
         <v>1343</v>
       </c>
       <c r="F3" s="115" t="s">
-        <v>2186</v>
+        <v>2556</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="H3" s="142" t="s">
         <v>1744</v>
@@ -12671,7 +12715,7 @@
         <v>1111</v>
       </c>
       <c r="BS3" s="419" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="BT3" s="146" t="s">
         <v>1050</v>
@@ -12770,7 +12814,7 @@
     </row>
     <row r="4" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="385" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="B4" s="351"/>
       <c r="C4" s="351"/>
@@ -12879,7 +12923,7 @@
     </row>
     <row r="5" spans="1:103" s="390" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="527" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="B5" s="389"/>
       <c r="C5" s="389"/>
@@ -12887,7 +12931,7 @@
       <c r="E5" s="388"/>
       <c r="F5" s="388"/>
       <c r="G5" s="399" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="H5" s="580"/>
       <c r="I5" s="230"/>
@@ -12988,7 +13032,7 @@
     </row>
     <row r="6" spans="1:103" s="390" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="527" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="B6" s="389"/>
       <c r="C6" s="389"/>
@@ -12996,7 +13040,7 @@
       <c r="E6" s="388"/>
       <c r="F6" s="388"/>
       <c r="G6" s="399" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="H6" s="580"/>
       <c r="I6" s="230"/>
@@ -13097,7 +13141,7 @@
     </row>
     <row r="7" spans="1:103" s="390" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="527" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="B7" s="389"/>
       <c r="C7" s="389"/>
@@ -13105,7 +13149,7 @@
       <c r="E7" s="388"/>
       <c r="F7" s="388"/>
       <c r="G7" s="399" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="H7" s="411"/>
       <c r="I7" s="230"/>
@@ -13206,7 +13250,7 @@
     </row>
     <row r="8" spans="1:103" s="390" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="527" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="B8" s="389"/>
       <c r="C8" s="389"/>
@@ -13214,7 +13258,7 @@
       <c r="E8" s="388"/>
       <c r="F8" s="388"/>
       <c r="G8" s="399" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="H8" s="411"/>
       <c r="I8" s="230"/>
@@ -13315,7 +13359,7 @@
     </row>
     <row r="9" spans="1:103" s="390" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="527" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="B9" s="389"/>
       <c r="C9" s="389"/>
@@ -13323,7 +13367,7 @@
       <c r="E9" s="388"/>
       <c r="F9" s="388"/>
       <c r="G9" s="399" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="H9" s="338"/>
       <c r="I9" s="230"/>
@@ -13424,7 +13468,7 @@
     </row>
     <row r="10" spans="1:103" s="390" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="527" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="B10" s="389"/>
       <c r="C10" s="389"/>
@@ -13432,7 +13476,7 @@
       <c r="E10" s="388"/>
       <c r="F10" s="388"/>
       <c r="G10" s="399" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="H10" s="338"/>
       <c r="I10" s="230"/>
@@ -13533,10 +13577,10 @@
     </row>
     <row r="11" spans="1:103" s="390" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="527" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="B11" s="173" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="C11" s="172" t="s">
         <v>2183</v>
@@ -13547,7 +13591,7 @@
       </c>
       <c r="F11" s="388"/>
       <c r="G11" s="399" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="H11" s="402"/>
       <c r="I11" s="230"/>
@@ -13655,10 +13699,10 @@
       <c r="D12" s="172"/>
       <c r="E12" s="172"/>
       <c r="F12" s="172" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="G12" s="189" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="H12" s="210"/>
       <c r="I12" s="239"/>
@@ -13803,11 +13847,11 @@
         <v>1615</v>
       </c>
       <c r="E13" s="172" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="F13" s="172"/>
       <c r="G13" s="189" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="H13" s="210"/>
       <c r="I13" s="239"/>
@@ -14099,7 +14143,7 @@
         <v>1425</v>
       </c>
       <c r="G15" s="189" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="H15" s="210"/>
       <c r="I15" s="239"/>
@@ -14214,7 +14258,7 @@
         <v>1556</v>
       </c>
       <c r="G16" s="189" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="H16" s="210"/>
       <c r="I16" s="239"/>
@@ -14387,7 +14431,7 @@
     </row>
     <row r="17" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="385" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="B17" s="351"/>
       <c r="C17" s="351"/>
@@ -14496,7 +14540,7 @@
     </row>
     <row r="18" spans="1:103" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="529" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="B18" s="173"/>
       <c r="C18" s="172"/>
@@ -14504,7 +14548,7 @@
       <c r="E18" s="172"/>
       <c r="F18" s="172"/>
       <c r="G18" s="189" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="H18" s="210"/>
       <c r="I18" s="239"/>
@@ -14605,7 +14649,7 @@
     </row>
     <row r="19" spans="1:103" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="529" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="B19" s="173">
         <v>1854</v>
@@ -14619,7 +14663,7 @@
       </c>
       <c r="F19" s="172"/>
       <c r="G19" s="189" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="H19" s="210"/>
       <c r="I19" s="239"/>
@@ -14720,7 +14764,7 @@
     </row>
     <row r="20" spans="1:103" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="529" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="B20" s="173">
         <v>1848</v>
@@ -14734,7 +14778,7 @@
       </c>
       <c r="F20" s="172"/>
       <c r="G20" s="189" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="H20" s="210"/>
       <c r="I20" s="239"/>
@@ -14849,7 +14893,7 @@
       </c>
       <c r="F21" s="172"/>
       <c r="G21" s="189" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="H21" s="210"/>
       <c r="I21" s="239"/>
@@ -14962,7 +15006,7 @@
       </c>
       <c r="F22" s="172"/>
       <c r="G22" s="189" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="H22" s="174" t="s">
         <v>1096</v>
@@ -15105,7 +15149,7 @@
         <v>1552</v>
       </c>
       <c r="G23" s="189" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="H23" s="210"/>
       <c r="I23" s="239"/>
@@ -15214,7 +15258,7 @@
     </row>
     <row r="24" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="385" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="B24" s="351"/>
       <c r="C24" s="351"/>
@@ -15323,7 +15367,7 @@
     </row>
     <row r="25" spans="1:103" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="530" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="B25" s="173">
         <v>1848</v>
@@ -15337,7 +15381,7 @@
       </c>
       <c r="F25" s="172"/>
       <c r="G25" s="189" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="H25" s="210"/>
       <c r="I25" s="239"/>
@@ -15438,7 +15482,7 @@
     </row>
     <row r="26" spans="1:103" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="530" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="B26" s="173">
         <v>1862</v>
@@ -15452,7 +15496,7 @@
       </c>
       <c r="F26" s="172"/>
       <c r="G26" s="189" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="H26" s="210"/>
       <c r="I26" s="239"/>
@@ -15553,10 +15597,10 @@
     </row>
     <row r="27" spans="1:103" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="529" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="B27" s="173" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="C27" s="172" t="s">
         <v>2183</v>
@@ -15567,7 +15611,7 @@
       </c>
       <c r="F27" s="172"/>
       <c r="G27" s="189" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="H27" s="210"/>
       <c r="I27" s="239"/>
@@ -15668,7 +15712,7 @@
     </row>
     <row r="28" spans="1:103" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="530" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="B28" s="173">
         <v>1850</v>
@@ -15682,7 +15726,7 @@
       </c>
       <c r="F28" s="172"/>
       <c r="G28" s="189" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="H28" s="210"/>
       <c r="I28" s="239"/>
@@ -15783,7 +15827,7 @@
     </row>
     <row r="29" spans="1:103" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="529" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="B29" s="173">
         <v>1845</v>
@@ -15797,7 +15841,7 @@
       </c>
       <c r="F29" s="172"/>
       <c r="G29" s="189" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="H29" s="210"/>
       <c r="I29" s="239"/>
@@ -15898,7 +15942,7 @@
     </row>
     <row r="30" spans="1:103" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="529" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="B30" s="173">
         <v>1866</v>
@@ -15912,7 +15956,7 @@
       </c>
       <c r="F30" s="172"/>
       <c r="G30" s="189" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="H30" s="210"/>
       <c r="I30" s="239"/>
@@ -16021,7 +16065,7 @@
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="G31" s="189" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="H31" s="210"/>
       <c r="I31" s="239"/>
@@ -16122,7 +16166,7 @@
     </row>
     <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="385" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="B32" s="351"/>
       <c r="C32" s="351"/>
@@ -16231,7 +16275,7 @@
     </row>
     <row r="33" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="529" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="B33" s="173"/>
       <c r="C33" s="172"/>
@@ -16239,7 +16283,7 @@
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="G33" s="189" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="H33" s="210"/>
       <c r="I33" s="239"/>
@@ -16340,7 +16384,7 @@
     </row>
     <row r="34" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="529" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="B34" s="173"/>
       <c r="C34" s="172"/>
@@ -16350,7 +16394,7 @@
       </c>
       <c r="F34" s="172"/>
       <c r="G34" s="189" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="H34" s="210"/>
       <c r="I34" s="239"/>
@@ -16560,7 +16604,7 @@
     </row>
     <row r="36" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="530" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="B36" s="173">
         <v>1836</v>
@@ -16572,9 +16616,11 @@
       <c r="E36" s="172" t="s">
         <v>641</v>
       </c>
-      <c r="F36" s="172"/>
+      <c r="F36" s="172" t="s">
+        <v>2555</v>
+      </c>
       <c r="G36" s="189" t="s">
-        <v>2187</v>
+        <v>2554</v>
       </c>
       <c r="H36" s="210"/>
       <c r="I36" s="239"/>
@@ -16675,7 +16721,7 @@
     </row>
     <row r="37" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="529" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="B37" s="173">
         <v>1874</v>
@@ -16689,7 +16735,7 @@
       </c>
       <c r="F37" s="172"/>
       <c r="G37" s="189" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="H37" s="210"/>
       <c r="I37" s="239"/>
@@ -16790,7 +16836,7 @@
     </row>
     <row r="38" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="530" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="B38" s="173">
         <v>1845</v>
@@ -16804,7 +16850,7 @@
       </c>
       <c r="F38" s="172"/>
       <c r="G38" s="189" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="H38" s="210"/>
       <c r="I38" s="239"/>
@@ -16905,7 +16951,7 @@
     </row>
     <row r="39" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="529" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="B39" s="173">
         <v>1856</v>
@@ -16919,7 +16965,7 @@
       </c>
       <c r="F39" s="172"/>
       <c r="G39" s="189" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="H39" s="210"/>
       <c r="I39" s="239"/>
@@ -17020,7 +17066,7 @@
     </row>
     <row r="40" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="530" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="B40" s="173">
         <v>1862</v>
@@ -17034,7 +17080,7 @@
       </c>
       <c r="F40" s="172"/>
       <c r="G40" s="189" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="H40" s="210"/>
       <c r="I40" s="239"/>
@@ -17135,7 +17181,7 @@
     </row>
     <row r="41" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="529" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="B41" s="173">
         <v>1873</v>
@@ -17149,7 +17195,7 @@
       </c>
       <c r="F41" s="172"/>
       <c r="G41" s="189" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="H41" s="210"/>
       <c r="I41" s="239"/>
@@ -17250,21 +17296,21 @@
     </row>
     <row r="42" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="530" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="B42" s="173">
         <v>1860</v>
       </c>
-      <c r="C42" s="172" t="s">
-        <v>2185</v>
-      </c>
+      <c r="C42" s="172"/>
       <c r="D42" s="172"/>
       <c r="E42" s="172" t="s">
-        <v>2160</v>
-      </c>
-      <c r="F42" s="172"/>
+        <v>2551</v>
+      </c>
+      <c r="F42" s="172" t="s">
+        <v>2557</v>
+      </c>
       <c r="G42" s="189" t="s">
-        <v>2191</v>
+        <v>2552</v>
       </c>
       <c r="H42" s="210"/>
       <c r="I42" s="239"/>
@@ -17365,21 +17411,21 @@
     </row>
     <row r="43" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="529" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="B43" s="173">
         <v>1868</v>
       </c>
-      <c r="C43" s="172" t="s">
-        <v>2185</v>
-      </c>
+      <c r="C43" s="172"/>
       <c r="D43" s="172"/>
       <c r="E43" s="172" t="s">
         <v>2161</v>
       </c>
-      <c r="F43" s="172"/>
+      <c r="F43" s="172" t="s">
+        <v>2557</v>
+      </c>
       <c r="G43" s="189" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="H43" s="210"/>
       <c r="I43" s="239"/>
@@ -17478,9 +17524,9 @@
       <c r="CX43" s="262"/>
       <c r="CY43" s="263"/>
     </row>
-    <row r="44" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="530" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="B44" s="173">
         <v>1863</v>
@@ -17492,9 +17538,11 @@
       <c r="E44" s="172" t="s">
         <v>2162</v>
       </c>
-      <c r="F44" s="172"/>
+      <c r="F44" s="172" t="s">
+        <v>2555</v>
+      </c>
       <c r="G44" s="189" t="s">
-        <v>2193</v>
+        <v>2553</v>
       </c>
       <c r="H44" s="210"/>
       <c r="I44" s="239"/>
@@ -17595,7 +17643,7 @@
     </row>
     <row r="45" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="529" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="B45" s="173">
         <v>1873</v>
@@ -17609,7 +17657,7 @@
       </c>
       <c r="F45" s="172"/>
       <c r="G45" s="189" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="H45" s="210"/>
       <c r="I45" s="239"/>
@@ -17710,7 +17758,7 @@
     </row>
     <row r="46" spans="1:103" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="529" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="B46" s="173">
         <v>1866</v>
@@ -17724,7 +17772,7 @@
       </c>
       <c r="F46" s="172"/>
       <c r="G46" s="189" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="H46" s="210"/>
       <c r="I46" s="239"/>
@@ -17825,21 +17873,21 @@
     </row>
     <row r="47" spans="1:103" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="529" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="B47" s="173">
         <v>1849</v>
       </c>
-      <c r="C47" s="172" t="s">
-        <v>2185</v>
-      </c>
+      <c r="C47" s="172"/>
       <c r="D47" s="172"/>
       <c r="E47" s="172" t="s">
         <v>2161</v>
       </c>
-      <c r="F47" s="172"/>
+      <c r="F47" s="172" t="s">
+        <v>2557</v>
+      </c>
       <c r="G47" s="189" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="H47" s="210"/>
       <c r="I47" s="239"/>
@@ -17952,9 +18000,11 @@
       <c r="E48" s="172" t="s">
         <v>2163</v>
       </c>
-      <c r="F48" s="172"/>
+      <c r="F48" s="172" t="s">
+        <v>2558</v>
+      </c>
       <c r="G48" s="189" t="s">
-        <v>2196</v>
+        <v>2550</v>
       </c>
       <c r="H48" s="210"/>
       <c r="I48" s="239"/>
@@ -18055,7 +18105,7 @@
     </row>
     <row r="49" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="529" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="B49" s="173">
         <v>1866</v>
@@ -18067,9 +18117,11 @@
       <c r="E49" s="172" t="s">
         <v>2164</v>
       </c>
-      <c r="F49" s="172"/>
+      <c r="F49" s="172" t="s">
+        <v>2558</v>
+      </c>
       <c r="G49" s="189" t="s">
-        <v>2194</v>
+        <v>2549</v>
       </c>
       <c r="H49" s="210"/>
       <c r="I49" s="239"/>
@@ -18170,7 +18222,7 @@
     </row>
     <row r="50" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="529" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="B50" s="173">
         <v>1874</v>
@@ -18184,7 +18236,7 @@
       </c>
       <c r="F50" s="172"/>
       <c r="G50" s="189" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="H50" s="210"/>
       <c r="I50" s="239"/>
@@ -18620,7 +18672,7 @@
       <c r="E54" s="172"/>
       <c r="F54" s="172"/>
       <c r="G54" s="189" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="H54" s="210"/>
       <c r="I54" s="239"/>
@@ -18838,7 +18890,7 @@
       <c r="E56" s="172"/>
       <c r="F56" s="172"/>
       <c r="G56" s="189" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="H56" s="210"/>
       <c r="I56" s="239"/>
@@ -18947,7 +18999,7 @@
       <c r="E57" s="172"/>
       <c r="F57" s="172"/>
       <c r="G57" s="189" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="H57" s="210"/>
       <c r="I57" s="239"/>
@@ -19048,17 +19100,17 @@
     </row>
     <row r="58" spans="1:103" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="529" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="B58" s="173"/>
       <c r="C58" s="172"/>
       <c r="D58" s="172"/>
       <c r="E58" s="172" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="F58" s="172"/>
       <c r="G58" s="189" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="H58" s="210"/>
       <c r="I58" s="239"/>
@@ -19159,7 +19211,7 @@
     </row>
     <row r="59" spans="1:103" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="529" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="B59" s="173"/>
       <c r="C59" s="172"/>
@@ -19167,7 +19219,7 @@
       <c r="E59" s="172"/>
       <c r="F59" s="172"/>
       <c r="G59" s="189" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="H59" s="210"/>
       <c r="I59" s="239"/>
@@ -19385,7 +19437,7 @@
       <c r="E61" s="172"/>
       <c r="F61" s="172"/>
       <c r="G61" s="189" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="H61" s="210"/>
       <c r="I61" s="239"/>
@@ -20039,7 +20091,7 @@
       <c r="E67" s="172"/>
       <c r="F67" s="172"/>
       <c r="G67" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H67" s="210"/>
       <c r="I67" s="239"/>
@@ -20140,7 +20192,7 @@
     </row>
     <row r="68" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="529" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="B68" s="173"/>
       <c r="C68" s="172"/>
@@ -20148,7 +20200,7 @@
       <c r="E68" s="172"/>
       <c r="F68" s="172"/>
       <c r="G68" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H68" s="210"/>
       <c r="I68" s="239"/>
@@ -20257,7 +20309,7 @@
       <c r="E69" s="172"/>
       <c r="F69" s="172"/>
       <c r="G69" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H69" s="210"/>
       <c r="I69" s="239"/>
@@ -20358,7 +20410,7 @@
     </row>
     <row r="70" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="529" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="B70" s="173"/>
       <c r="C70" s="172"/>
@@ -20366,7 +20418,7 @@
       <c r="E70" s="172"/>
       <c r="F70" s="172"/>
       <c r="G70" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H70" s="210"/>
       <c r="I70" s="239"/>
@@ -20467,7 +20519,7 @@
     </row>
     <row r="71" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="529" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="B71" s="173"/>
       <c r="C71" s="172"/>
@@ -20475,7 +20527,7 @@
       <c r="E71" s="172"/>
       <c r="F71" s="172"/>
       <c r="G71" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H71" s="210"/>
       <c r="I71" s="239"/>
@@ -20576,7 +20628,7 @@
     </row>
     <row r="72" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="529" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="B72" s="173"/>
       <c r="C72" s="172"/>
@@ -20584,7 +20636,7 @@
       <c r="E72" s="172"/>
       <c r="F72" s="172"/>
       <c r="G72" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H72" s="210"/>
       <c r="I72" s="239"/>
@@ -20685,7 +20737,7 @@
     </row>
     <row r="73" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="529" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="B73" s="173"/>
       <c r="C73" s="172"/>
@@ -20693,7 +20745,7 @@
       <c r="E73" s="172"/>
       <c r="F73" s="172"/>
       <c r="G73" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H73" s="210"/>
       <c r="I73" s="239"/>
@@ -20794,7 +20846,7 @@
     </row>
     <row r="74" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="529" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="B74" s="173"/>
       <c r="C74" s="172"/>
@@ -20802,7 +20854,7 @@
       <c r="E74" s="172"/>
       <c r="F74" s="172"/>
       <c r="G74" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H74" s="210"/>
       <c r="I74" s="239"/>
@@ -20903,7 +20955,7 @@
     </row>
     <row r="75" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="529" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="B75" s="173"/>
       <c r="C75" s="172"/>
@@ -20911,7 +20963,7 @@
       <c r="E75" s="172"/>
       <c r="F75" s="172"/>
       <c r="G75" s="189" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="H75" s="210"/>
       <c r="I75" s="239"/>
@@ -21400,7 +21452,7 @@
       <c r="BQ78" s="258"/>
       <c r="BR78" s="258"/>
       <c r="BS78" s="149" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="BT78" s="259"/>
       <c r="BU78" s="259"/>
@@ -22610,7 +22662,7 @@
       </c>
       <c r="E83" s="172"/>
       <c r="F83" s="172" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="G83" s="189">
         <v>10424</v>
@@ -23019,7 +23071,7 @@
       <c r="BQ85" s="211"/>
       <c r="BR85" s="232"/>
       <c r="BS85" s="149" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="BT85" s="259"/>
       <c r="BU85" s="259"/>
@@ -25948,11 +26000,11 @@
       <c r="C106" s="172"/>
       <c r="D106" s="172"/>
       <c r="E106" s="172" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="F106" s="172"/>
       <c r="G106" s="189" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="H106" s="210"/>
       <c r="I106" s="239"/>
@@ -26185,14 +26237,18 @@
         <v>1561</v>
       </c>
       <c r="B108" s="184"/>
-      <c r="C108" s="172"/>
+      <c r="C108" s="172" t="s">
+        <v>2183</v>
+      </c>
       <c r="D108" s="172" t="s">
         <v>1418</v>
       </c>
-      <c r="E108" s="172"/>
+      <c r="E108" s="172" t="s">
+        <v>201</v>
+      </c>
       <c r="F108" s="172"/>
-      <c r="G108" s="189">
-        <v>8461</v>
+      <c r="G108" s="189" t="s">
+        <v>2559</v>
       </c>
       <c r="H108" s="218">
         <v>172.5</v>
@@ -26435,7 +26491,7 @@
       <c r="BQ109" s="217"/>
       <c r="BR109" s="217"/>
       <c r="BS109" s="149" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="BT109" s="259"/>
       <c r="BU109" s="259"/>
@@ -29286,7 +29342,7 @@
         <v>1425</v>
       </c>
       <c r="G130" s="189" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="H130" s="210"/>
       <c r="I130" s="239"/>
@@ -33153,7 +33209,7 @@
     </row>
     <row r="161" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="529" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
       <c r="B161" s="191"/>
       <c r="C161" s="191"/>
@@ -33225,7 +33281,7 @@
       <c r="BQ161" s="258"/>
       <c r="BR161" s="258"/>
       <c r="BS161" s="149" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="BT161" s="259"/>
       <c r="BU161" s="259"/>
@@ -33262,7 +33318,7 @@
     </row>
     <row r="162" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="529" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="B162" s="191"/>
       <c r="C162" s="191"/>
@@ -33334,7 +33390,7 @@
       <c r="BQ162" s="258"/>
       <c r="BR162" s="258"/>
       <c r="BS162" s="149" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="BT162" s="259"/>
       <c r="BU162" s="259"/>
@@ -33369,42 +33425,436 @@
       <c r="CX162" s="205"/>
       <c r="CY162" s="227"/>
     </row>
+    <row r="163" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="246" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B163" s="192"/>
+      <c r="C163" s="193"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="193"/>
+      <c r="F163" s="193"/>
+      <c r="G163" s="190"/>
+      <c r="H163" s="228"/>
+      <c r="I163" s="153"/>
+      <c r="J163" s="153"/>
+      <c r="K163" s="240"/>
+      <c r="L163" s="284"/>
+      <c r="M163" s="244"/>
+      <c r="N163" s="287"/>
+      <c r="O163" s="182"/>
+      <c r="P163" s="244"/>
+      <c r="Q163" s="244"/>
+      <c r="R163" s="245"/>
+      <c r="S163" s="181"/>
+      <c r="T163" s="154"/>
+      <c r="U163" s="154"/>
+      <c r="V163" s="154"/>
+      <c r="W163" s="183"/>
+      <c r="X163" s="183"/>
+      <c r="Y163" s="201"/>
+      <c r="Z163" s="283"/>
+      <c r="AA163" s="283"/>
+      <c r="AB163" s="244"/>
+      <c r="AC163" s="244"/>
+      <c r="AD163" s="245"/>
+      <c r="AE163" s="284"/>
+      <c r="AF163" s="244"/>
+      <c r="AG163" s="244"/>
+      <c r="AH163" s="244"/>
+      <c r="AI163" s="244"/>
+      <c r="AJ163" s="244"/>
+      <c r="AK163" s="244"/>
+      <c r="AL163" s="244"/>
+      <c r="AM163" s="285"/>
+      <c r="AN163" s="286"/>
+      <c r="AO163" s="267"/>
+      <c r="AP163" s="228"/>
+      <c r="AQ163" s="154"/>
+      <c r="AR163" s="154"/>
+      <c r="AS163" s="150"/>
+      <c r="AT163" s="284"/>
+      <c r="AU163" s="244"/>
+      <c r="AV163" s="285"/>
+      <c r="AW163" s="284"/>
+      <c r="AX163" s="244"/>
+      <c r="AY163" s="244"/>
+      <c r="AZ163" s="244"/>
+      <c r="BA163" s="244"/>
+      <c r="BB163" s="244"/>
+      <c r="BC163" s="244"/>
+      <c r="BD163" s="287"/>
+      <c r="BE163" s="153"/>
+      <c r="BF163" s="154"/>
+      <c r="BG163" s="150"/>
+      <c r="BH163" s="350"/>
+      <c r="BI163" s="294"/>
+      <c r="BJ163" s="183"/>
+      <c r="BK163" s="267"/>
+      <c r="BL163" s="153"/>
+      <c r="BM163" s="154"/>
+      <c r="BN163" s="150"/>
+      <c r="BO163" s="162"/>
+      <c r="BP163" s="162"/>
+      <c r="BQ163" s="162"/>
+      <c r="BR163" s="162"/>
+      <c r="BS163" s="150"/>
+      <c r="BT163" s="268"/>
+      <c r="BU163" s="268"/>
+      <c r="BV163" s="268"/>
+      <c r="BW163" s="268"/>
+      <c r="BX163" s="269"/>
+      <c r="BY163" s="268"/>
+      <c r="BZ163" s="181"/>
+      <c r="CA163" s="154"/>
+      <c r="CB163" s="267"/>
+      <c r="CC163" s="182"/>
+      <c r="CD163" s="228"/>
+      <c r="CE163" s="182"/>
+      <c r="CF163" s="240"/>
+      <c r="CG163" s="153"/>
+      <c r="CH163" s="153"/>
+      <c r="CI163" s="182"/>
+      <c r="CJ163" s="228"/>
+      <c r="CK163" s="267"/>
+      <c r="CL163" s="228"/>
+      <c r="CM163" s="267"/>
+      <c r="CN163" s="182"/>
+      <c r="CO163" s="154"/>
+      <c r="CP163" s="183"/>
+      <c r="CQ163" s="154"/>
+      <c r="CR163" s="154"/>
+      <c r="CS163" s="270"/>
+      <c r="CT163" s="268"/>
+      <c r="CU163" s="182"/>
+      <c r="CV163" s="228"/>
+      <c r="CW163" s="267"/>
+      <c r="CX163" s="182"/>
+      <c r="CY163" s="267"/>
+    </row>
+    <row r="164" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="529" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="197"/>
+      <c r="C164" s="172"/>
+      <c r="D164" s="172"/>
+      <c r="E164" s="172"/>
+      <c r="F164" s="172"/>
+      <c r="G164" s="189"/>
+      <c r="H164" s="210"/>
+      <c r="I164" s="239"/>
+      <c r="J164" s="239"/>
+      <c r="K164" s="222"/>
+      <c r="L164" s="212"/>
+      <c r="M164" s="213"/>
+      <c r="N164" s="242"/>
+      <c r="O164" s="205"/>
+      <c r="P164" s="213"/>
+      <c r="Q164" s="213"/>
+      <c r="R164" s="223"/>
+      <c r="S164" s="587"/>
+      <c r="T164" s="588"/>
+      <c r="U164" s="588"/>
+      <c r="V164" s="588"/>
+      <c r="W164" s="588"/>
+      <c r="X164" s="588"/>
+      <c r="Y164" s="589"/>
+      <c r="Z164" s="208"/>
+      <c r="AA164" s="208"/>
+      <c r="AB164" s="213"/>
+      <c r="AC164" s="213"/>
+      <c r="AD164" s="223"/>
+      <c r="AE164" s="212"/>
+      <c r="AF164" s="213"/>
+      <c r="AG164" s="213"/>
+      <c r="AH164" s="213"/>
+      <c r="AI164" s="213"/>
+      <c r="AJ164" s="213"/>
+      <c r="AK164" s="213"/>
+      <c r="AL164" s="213"/>
+      <c r="AM164" s="225"/>
+      <c r="AN164" s="235"/>
+      <c r="AO164" s="227"/>
+      <c r="AP164" s="210"/>
+      <c r="AQ164" s="211"/>
+      <c r="AR164" s="211"/>
+      <c r="AS164" s="232"/>
+      <c r="AT164" s="212"/>
+      <c r="AU164" s="213"/>
+      <c r="AV164" s="225"/>
+      <c r="AW164" s="212"/>
+      <c r="AX164" s="213"/>
+      <c r="AY164" s="213"/>
+      <c r="AZ164" s="213"/>
+      <c r="BA164" s="213"/>
+      <c r="BB164" s="213"/>
+      <c r="BC164" s="213"/>
+      <c r="BD164" s="242"/>
+      <c r="BE164" s="239"/>
+      <c r="BF164" s="211"/>
+      <c r="BG164" s="232"/>
+      <c r="BH164" s="347"/>
+      <c r="BI164" s="292"/>
+      <c r="BJ164" s="217"/>
+      <c r="BK164" s="227"/>
+      <c r="BL164" s="239"/>
+      <c r="BM164" s="211"/>
+      <c r="BN164" s="232"/>
+      <c r="BO164" s="258"/>
+      <c r="BP164" s="258"/>
+      <c r="BQ164" s="258"/>
+      <c r="BR164" s="258"/>
+      <c r="BS164" s="232"/>
+      <c r="BT164" s="259"/>
+      <c r="BU164" s="259"/>
+      <c r="BV164" s="259"/>
+      <c r="BW164" s="259"/>
+      <c r="BX164" s="260"/>
+      <c r="BY164" s="259"/>
+      <c r="BZ164" s="221"/>
+      <c r="CA164" s="211"/>
+      <c r="CB164" s="227"/>
+      <c r="CC164" s="205"/>
+      <c r="CD164" s="210"/>
+      <c r="CE164" s="205"/>
+      <c r="CF164" s="222"/>
+      <c r="CG164" s="239"/>
+      <c r="CH164" s="211"/>
+      <c r="CI164" s="232"/>
+      <c r="CJ164" s="210"/>
+      <c r="CK164" s="227"/>
+      <c r="CL164" s="210"/>
+      <c r="CM164" s="227"/>
+      <c r="CN164" s="205"/>
+      <c r="CO164" s="211"/>
+      <c r="CP164" s="217"/>
+      <c r="CQ164" s="211"/>
+      <c r="CR164" s="211"/>
+      <c r="CS164" s="271"/>
+      <c r="CT164" s="259"/>
+      <c r="CU164" s="205"/>
+      <c r="CV164" s="210"/>
+      <c r="CW164" s="227"/>
+      <c r="CX164" s="205"/>
+      <c r="CY164" s="227"/>
+    </row>
+    <row r="165" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="529" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="197"/>
+      <c r="C165" s="172"/>
+      <c r="D165" s="172"/>
+      <c r="E165" s="172"/>
+      <c r="F165" s="172"/>
+      <c r="G165" s="189"/>
+      <c r="H165" s="210"/>
+      <c r="I165" s="239"/>
+      <c r="J165" s="239"/>
+      <c r="K165" s="222"/>
+      <c r="L165" s="212"/>
+      <c r="M165" s="213"/>
+      <c r="N165" s="242"/>
+      <c r="O165" s="205"/>
+      <c r="P165" s="213"/>
+      <c r="Q165" s="213"/>
+      <c r="R165" s="223"/>
+      <c r="S165" s="587"/>
+      <c r="T165" s="588"/>
+      <c r="U165" s="588"/>
+      <c r="V165" s="588"/>
+      <c r="W165" s="588"/>
+      <c r="X165" s="588"/>
+      <c r="Y165" s="589"/>
+      <c r="Z165" s="208"/>
+      <c r="AA165" s="208"/>
+      <c r="AB165" s="213"/>
+      <c r="AC165" s="213"/>
+      <c r="AD165" s="223"/>
+      <c r="AE165" s="212"/>
+      <c r="AF165" s="213"/>
+      <c r="AG165" s="213"/>
+      <c r="AH165" s="213"/>
+      <c r="AI165" s="213"/>
+      <c r="AJ165" s="213"/>
+      <c r="AK165" s="213"/>
+      <c r="AL165" s="213"/>
+      <c r="AM165" s="225"/>
+      <c r="AN165" s="235"/>
+      <c r="AO165" s="227"/>
+      <c r="AP165" s="210"/>
+      <c r="AQ165" s="211"/>
+      <c r="AR165" s="211"/>
+      <c r="AS165" s="232"/>
+      <c r="AT165" s="212"/>
+      <c r="AU165" s="213"/>
+      <c r="AV165" s="225"/>
+      <c r="AW165" s="212"/>
+      <c r="AX165" s="213"/>
+      <c r="AY165" s="213"/>
+      <c r="AZ165" s="213"/>
+      <c r="BA165" s="213"/>
+      <c r="BB165" s="213"/>
+      <c r="BC165" s="213"/>
+      <c r="BD165" s="242"/>
+      <c r="BE165" s="239"/>
+      <c r="BF165" s="211"/>
+      <c r="BG165" s="232"/>
+      <c r="BH165" s="347"/>
+      <c r="BI165" s="292"/>
+      <c r="BJ165" s="217"/>
+      <c r="BK165" s="227"/>
+      <c r="BL165" s="239"/>
+      <c r="BM165" s="211"/>
+      <c r="BN165" s="232"/>
+      <c r="BO165" s="258"/>
+      <c r="BP165" s="258"/>
+      <c r="BQ165" s="258"/>
+      <c r="BR165" s="258"/>
+      <c r="BS165" s="232"/>
+      <c r="BT165" s="259"/>
+      <c r="BU165" s="259"/>
+      <c r="BV165" s="259"/>
+      <c r="BW165" s="259"/>
+      <c r="BX165" s="260"/>
+      <c r="BY165" s="259"/>
+      <c r="BZ165" s="221"/>
+      <c r="CA165" s="211"/>
+      <c r="CB165" s="227"/>
+      <c r="CC165" s="205"/>
+      <c r="CD165" s="210"/>
+      <c r="CE165" s="205"/>
+      <c r="CF165" s="222"/>
+      <c r="CG165" s="239"/>
+      <c r="CH165" s="211"/>
+      <c r="CI165" s="232"/>
+      <c r="CJ165" s="210"/>
+      <c r="CK165" s="227"/>
+      <c r="CL165" s="210"/>
+      <c r="CM165" s="227"/>
+      <c r="CN165" s="205"/>
+      <c r="CO165" s="211"/>
+      <c r="CP165" s="217"/>
+      <c r="CQ165" s="211"/>
+      <c r="CR165" s="211"/>
+      <c r="CS165" s="271"/>
+      <c r="CT165" s="259"/>
+      <c r="CU165" s="205"/>
+      <c r="CV165" s="210"/>
+      <c r="CW165" s="227"/>
+      <c r="CX165" s="205"/>
+      <c r="CY165" s="227"/>
+    </row>
+    <row r="166" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="529" t="s">
+        <v>250</v>
+      </c>
+      <c r="B166" s="197"/>
+      <c r="C166" s="172"/>
+      <c r="D166" s="172"/>
+      <c r="E166" s="172"/>
+      <c r="F166" s="172"/>
+      <c r="G166" s="189"/>
+      <c r="H166" s="210"/>
+      <c r="I166" s="239"/>
+      <c r="J166" s="239"/>
+      <c r="K166" s="222"/>
+      <c r="L166" s="212"/>
+      <c r="M166" s="213"/>
+      <c r="N166" s="242"/>
+      <c r="O166" s="205"/>
+      <c r="P166" s="213"/>
+      <c r="Q166" s="213"/>
+      <c r="R166" s="223"/>
+      <c r="S166" s="587"/>
+      <c r="T166" s="588"/>
+      <c r="U166" s="588"/>
+      <c r="V166" s="588"/>
+      <c r="W166" s="588"/>
+      <c r="X166" s="588"/>
+      <c r="Y166" s="589"/>
+      <c r="Z166" s="208"/>
+      <c r="AA166" s="208"/>
+      <c r="AB166" s="213"/>
+      <c r="AC166" s="213"/>
+      <c r="AD166" s="223"/>
+      <c r="AE166" s="212"/>
+      <c r="AF166" s="213"/>
+      <c r="AG166" s="213"/>
+      <c r="AH166" s="213"/>
+      <c r="AI166" s="213"/>
+      <c r="AJ166" s="213"/>
+      <c r="AK166" s="213"/>
+      <c r="AL166" s="213"/>
+      <c r="AM166" s="225"/>
+      <c r="AN166" s="235"/>
+      <c r="AO166" s="227"/>
+      <c r="AP166" s="210"/>
+      <c r="AQ166" s="211"/>
+      <c r="AR166" s="211"/>
+      <c r="AS166" s="232"/>
+      <c r="AT166" s="212"/>
+      <c r="AU166" s="213"/>
+      <c r="AV166" s="225"/>
+      <c r="AW166" s="212"/>
+      <c r="AX166" s="213"/>
+      <c r="AY166" s="213"/>
+      <c r="AZ166" s="213"/>
+      <c r="BA166" s="213"/>
+      <c r="BB166" s="213"/>
+      <c r="BC166" s="213"/>
+      <c r="BD166" s="242"/>
+      <c r="BE166" s="239"/>
+      <c r="BF166" s="211"/>
+      <c r="BG166" s="232"/>
+      <c r="BH166" s="347"/>
+      <c r="BI166" s="292"/>
+      <c r="BJ166" s="217"/>
+      <c r="BK166" s="227"/>
+      <c r="BL166" s="239"/>
+      <c r="BM166" s="211"/>
+      <c r="BN166" s="232"/>
+      <c r="BO166" s="258"/>
+      <c r="BP166" s="258"/>
+      <c r="BQ166" s="258"/>
+      <c r="BR166" s="258"/>
+      <c r="BS166" s="232"/>
+      <c r="BT166" s="259"/>
+      <c r="BU166" s="259"/>
+      <c r="BV166" s="259"/>
+      <c r="BW166" s="259"/>
+      <c r="BX166" s="260"/>
+      <c r="BY166" s="259"/>
+      <c r="BZ166" s="221"/>
+      <c r="CA166" s="211"/>
+      <c r="CB166" s="227"/>
+      <c r="CC166" s="205"/>
+      <c r="CD166" s="210"/>
+      <c r="CE166" s="205"/>
+      <c r="CF166" s="222"/>
+      <c r="CG166" s="239"/>
+      <c r="CH166" s="211"/>
+      <c r="CI166" s="232"/>
+      <c r="CJ166" s="210"/>
+      <c r="CK166" s="227"/>
+      <c r="CL166" s="210"/>
+      <c r="CM166" s="227"/>
+      <c r="CN166" s="205"/>
+      <c r="CO166" s="211"/>
+      <c r="CP166" s="217"/>
+      <c r="CQ166" s="211"/>
+      <c r="CR166" s="211"/>
+      <c r="CS166" s="271"/>
+      <c r="CT166" s="259"/>
+      <c r="CU166" s="205"/>
+      <c r="CV166" s="210"/>
+      <c r="CW166" s="227"/>
+      <c r="CX166" s="205"/>
+      <c r="CY166" s="227"/>
+    </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="CN2:CS2"/>
-    <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BS2"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="CJ1:CK1"/>
-    <mergeCell ref="CL1:CM1"/>
-    <mergeCell ref="CN1:CS1"/>
-    <mergeCell ref="CV1:CW1"/>
-    <mergeCell ref="CX1:CY1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BS1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CG1:CI1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AE1:AM1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BE2:BG2"/>
     <mergeCell ref="AN2:AO2"/>
@@ -33415,6 +33865,40 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AW2:BD2"/>
     <mergeCell ref="AW1:BD1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BS1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="CL1:CM1"/>
+    <mergeCell ref="CN1:CS1"/>
+    <mergeCell ref="CV1:CW1"/>
+    <mergeCell ref="CX1:CY1"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BS2"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CN2:CS2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CX2:CY2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="25" orientation="landscape" r:id="rId1"/>
@@ -33429,10 +33913,10 @@
   <dimension ref="A1:X645"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
@@ -33460,39 +33944,39 @@
   <sheetData>
     <row r="1" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="627" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B2" s="629"/>
-      <c r="C2" s="628"/>
-      <c r="D2" s="627" t="s">
-        <v>2497</v>
-      </c>
-      <c r="E2" s="629"/>
-      <c r="F2" s="629"/>
-      <c r="G2" s="628"/>
-      <c r="H2" s="621" t="s">
+      <c r="A2" s="630" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2" s="632"/>
+      <c r="C2" s="631"/>
+      <c r="D2" s="630" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E2" s="632"/>
+      <c r="F2" s="632"/>
+      <c r="G2" s="631"/>
+      <c r="H2" s="624" t="s">
         <v>996</v>
       </c>
-      <c r="I2" s="622"/>
-      <c r="J2" s="622"/>
-      <c r="K2" s="622"/>
-      <c r="L2" s="622"/>
-      <c r="M2" s="622"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="627" t="s">
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
+      <c r="K2" s="625"/>
+      <c r="L2" s="625"/>
+      <c r="M2" s="625"/>
+      <c r="N2" s="626"/>
+      <c r="O2" s="630" t="s">
         <v>990</v>
       </c>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="624" t="s">
-        <v>2411</v>
-      </c>
-      <c r="R2" s="625"/>
-      <c r="S2" s="625"/>
-      <c r="T2" s="625"/>
-      <c r="U2" s="625"/>
-      <c r="V2" s="625"/>
-      <c r="W2" s="626"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="627" t="s">
+        <v>2406</v>
+      </c>
+      <c r="R2" s="628"/>
+      <c r="S2" s="628"/>
+      <c r="T2" s="628"/>
+      <c r="U2" s="628"/>
+      <c r="V2" s="628"/>
+      <c r="W2" s="629"/>
     </row>
     <row r="3" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -33527,7 +34011,7 @@
         <v>798</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>797</v>
@@ -33539,7 +34023,7 @@
         <v>799</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
@@ -33608,7 +34092,7 @@
         <v>161</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M5" s="17">
         <v>1</v>
@@ -33659,7 +34143,7 @@
         <v>258</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M6" s="20">
         <v>1</v>
@@ -33695,7 +34179,7 @@
         <v>146</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M7" s="20">
         <v>1</v>
@@ -33731,7 +34215,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M8" s="20">
         <v>1</v>
@@ -33767,7 +34251,7 @@
         <v>76</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M9" s="20">
         <v>1</v>
@@ -33803,7 +34287,7 @@
         <v>109</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M10" s="20">
         <v>1</v>
@@ -33826,10 +34310,10 @@
         <v>782</v>
       </c>
       <c r="B11" s="454" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="C11" s="455" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="D11" s="438"/>
       <c r="E11" s="550"/>
@@ -33846,7 +34330,7 @@
         <v>517</v>
       </c>
       <c r="L11" s="468" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M11" s="518">
         <v>1</v>
@@ -33882,7 +34366,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M12" s="20">
         <v>1</v>
@@ -33919,7 +34403,7 @@
         <v>417</v>
       </c>
       <c r="L13" s="468" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M13" s="469">
         <v>2</v>
@@ -33968,7 +34452,7 @@
         <v>76</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M14" s="24">
         <v>2</v>
@@ -34029,7 +34513,7 @@
         <v>163</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M15" s="24">
         <v>3</v>
@@ -34078,7 +34562,7 @@
         <v>76</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M16" s="24">
         <v>3</v>
@@ -34112,7 +34596,7 @@
         <v>76</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M17" s="24">
         <v>3</v>
@@ -34146,7 +34630,7 @@
         <v>76</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M18" s="24">
         <v>4</v>
@@ -34180,7 +34664,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M19" s="24">
         <v>4</v>
@@ -34248,7 +34732,7 @@
         <v>84</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M21" s="24">
         <v>4</v>
@@ -34282,7 +34766,7 @@
         <v>76</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M22" s="24">
         <v>4</v>
@@ -34325,7 +34809,7 @@
         <v>80</v>
       </c>
       <c r="L23" s="468" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="M23" s="469">
         <v>4</v>
@@ -34361,7 +34845,7 @@
         <v>714</v>
       </c>
       <c r="B24" s="454" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="C24" s="455" t="s">
         <v>129</v>
@@ -34414,13 +34898,13 @@
     </row>
     <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="453" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="B25" s="454" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="C25" s="455" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="D25" s="438"/>
       <c r="E25" s="550"/>
@@ -34461,7 +34945,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="455" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="D26" s="438"/>
       <c r="E26" s="550"/>
@@ -34654,7 +35138,7 @@
       </c>
       <c r="B30" s="454"/>
       <c r="C30" s="455" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="D30" s="438"/>
       <c r="E30" s="550"/>
@@ -34936,10 +35420,10 @@
         <v>263</v>
       </c>
       <c r="B36" s="454" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C36" s="455" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="D36" s="438"/>
       <c r="E36" s="550"/>
@@ -35152,7 +35636,7 @@
       <c r="F41" s="552"/>
       <c r="G41" s="557"/>
       <c r="I41" s="4" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>131</v>
@@ -35227,10 +35711,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="454" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="C43" s="455" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="D43" s="438"/>
       <c r="E43" s="550"/>
@@ -35401,7 +35885,7 @@
     </row>
     <row r="48" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="453" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="B48" s="454"/>
       <c r="C48" s="455" t="s">
@@ -35458,10 +35942,10 @@
         <v>20</v>
       </c>
       <c r="B49" s="473" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="C49" s="508" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="D49" s="438"/>
       <c r="E49" s="550"/>
@@ -35729,13 +36213,13 @@
     </row>
     <row r="56" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="453" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="B56" s="454" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C56" s="455" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="D56" s="438"/>
       <c r="E56" s="550"/>
@@ -35881,13 +36365,13 @@
     </row>
     <row r="60" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="453" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="B60" s="454" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C60" s="455" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="D60" s="438"/>
       <c r="E60" s="550"/>
@@ -35940,7 +36424,7 @@
         <v>184</v>
       </c>
       <c r="B61" s="454" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="C61" s="455" t="s">
         <v>186</v>
@@ -36115,11 +36599,11 @@
     </row>
     <row r="65" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="453" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B65" s="454"/>
       <c r="C65" s="455" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D65" s="438"/>
       <c r="E65" s="550"/>
@@ -36240,10 +36724,10 @@
         <v>740</v>
       </c>
       <c r="B68" s="454" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="C68" s="455" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="D68" s="438"/>
       <c r="E68" s="550"/>
@@ -36361,11 +36845,11 @@
     </row>
     <row r="71" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="453" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="B71" s="454"/>
       <c r="C71" s="455" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="D71" s="438"/>
       <c r="E71" s="550"/>
@@ -36404,10 +36888,10 @@
         <v>216</v>
       </c>
       <c r="B72" s="454" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="C72" s="455" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="D72" s="438"/>
       <c r="E72" s="550"/>
@@ -36522,7 +37006,7 @@
         <v>106</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M74" s="24">
         <v>21</v>
@@ -36541,13 +37025,13 @@
     </row>
     <row r="75" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="453" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="B75" s="454" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="C75" s="455" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="D75" s="438"/>
       <c r="E75" s="550"/>
@@ -36602,10 +37086,10 @@
         <v>346</v>
       </c>
       <c r="B76" s="454" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C76" s="455" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="D76" s="438"/>
       <c r="E76" s="550"/>
@@ -36777,10 +37261,10 @@
         <v>275</v>
       </c>
       <c r="B80" s="454" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="C80" s="455" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="D80" s="438"/>
       <c r="E80" s="550"/>
@@ -36834,7 +37318,7 @@
       </c>
       <c r="B81" s="454"/>
       <c r="C81" s="455" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="D81" s="453" t="s">
         <v>761</v>
@@ -36885,7 +37369,7 @@
       <c r="F82" s="552"/>
       <c r="G82" s="557"/>
       <c r="I82" s="4" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>45</v>
@@ -36913,13 +37397,13 @@
     </row>
     <row r="83" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="453" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="B83" s="454" t="s">
         <v>526</v>
       </c>
       <c r="C83" s="455" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="D83" s="438"/>
       <c r="E83" s="550"/>
@@ -37042,10 +37526,10 @@
         <v>241</v>
       </c>
       <c r="B86" s="454" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="C86" s="455" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="D86" s="453" t="s">
         <v>241</v>
@@ -37106,7 +37590,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="102"/>
       <c r="D87" s="453" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="E87" s="502" t="s">
         <v>21</v>
@@ -37119,7 +37603,7 @@
       </c>
       <c r="H87" s="499"/>
       <c r="I87" s="466" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="J87" s="467" t="s">
         <v>21</v>
@@ -37165,7 +37649,7 @@
       </c>
       <c r="B88" s="454"/>
       <c r="C88" s="455" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D88" s="438"/>
       <c r="E88" s="550"/>
@@ -37250,11 +37734,11 @@
     </row>
     <row r="90" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="453" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="B90" s="454"/>
       <c r="C90" s="455" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="D90" s="438"/>
       <c r="E90" s="550"/>
@@ -37645,10 +38129,10 @@
         <v>2102</v>
       </c>
       <c r="B100" s="454" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="C100" s="455" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="D100" s="438"/>
       <c r="E100" s="550"/>
@@ -37780,10 +38264,10 @@
         <v>219</v>
       </c>
       <c r="B103" s="454" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C103" s="455" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D103" s="438"/>
       <c r="E103" s="550"/>
@@ -37918,7 +38402,7 @@
       </c>
       <c r="S105" s="70"/>
       <c r="T105" s="4" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="U105" s="5" t="s">
         <v>773</v>
@@ -38032,7 +38516,7 @@
         <v>76</v>
       </c>
       <c r="L108" s="30" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M108" s="30">
         <v>28</v>
@@ -38530,7 +39014,7 @@
       </c>
       <c r="B122" s="454"/>
       <c r="C122" s="455" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="D122" s="438"/>
       <c r="E122" s="550"/>
@@ -38572,13 +39056,13 @@
       <c r="F123" s="552"/>
       <c r="G123" s="557"/>
       <c r="I123" s="4" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="L123" s="30" t="s">
         <v>663</v>
@@ -38719,10 +39203,10 @@
         <v>238</v>
       </c>
       <c r="B127" s="454" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C127" s="455" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="D127" s="438"/>
       <c r="E127" s="550"/>
@@ -38978,7 +39462,7 @@
         <v>76</v>
       </c>
       <c r="L133" s="30" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M133" s="30">
         <v>37</v>
@@ -38999,7 +39483,7 @@
       <c r="B134" s="18"/>
       <c r="C134" s="102"/>
       <c r="D134" s="453" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="E134" s="502" t="s">
         <v>726</v>
@@ -39012,7 +39496,7 @@
       </c>
       <c r="H134" s="499"/>
       <c r="I134" s="466" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="J134" s="467" t="s">
         <v>668</v>
@@ -39259,7 +39743,7 @@
         <v>76</v>
       </c>
       <c r="L141" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M141" s="30">
         <v>41</v>
@@ -39311,11 +39795,11 @@
     </row>
     <row r="143" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="453" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="B143" s="454"/>
       <c r="C143" s="455" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D143" s="438"/>
       <c r="E143" s="550"/>
@@ -39400,7 +39884,7 @@
         <v>1002</v>
       </c>
       <c r="L145" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M145" s="30">
         <v>43</v>
@@ -39449,7 +39933,7 @@
         <v>76</v>
       </c>
       <c r="L146" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M146" s="30">
         <v>43</v>
@@ -39486,7 +39970,7 @@
       </c>
       <c r="B147" s="454"/>
       <c r="C147" s="455" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="D147" s="438"/>
       <c r="E147" s="550"/>
@@ -39503,7 +39987,7 @@
         <v>491</v>
       </c>
       <c r="L147" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M147" s="492">
         <v>43</v>
@@ -39654,7 +40138,7 @@
         <v>89</v>
       </c>
       <c r="L150" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M150" s="30">
         <v>44</v>
@@ -39705,7 +40189,7 @@
         <v>353</v>
       </c>
       <c r="L151" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M151" s="30">
         <v>44</v>
@@ -39756,7 +40240,7 @@
         <v>76</v>
       </c>
       <c r="L152" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M152" s="30">
         <v>44</v>
@@ -39807,7 +40291,7 @@
         <v>587</v>
       </c>
       <c r="L153" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M153" s="33">
         <v>44</v>
@@ -39844,7 +40328,7 @@
         <v>76</v>
       </c>
       <c r="L154" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M154" s="30">
         <v>44</v>
@@ -39973,7 +40457,7 @@
       </c>
       <c r="B157" s="454"/>
       <c r="C157" s="455" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D157" s="438"/>
       <c r="E157" s="550"/>
@@ -40064,7 +40548,7 @@
         <v>76</v>
       </c>
       <c r="L159" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M159" s="33">
         <v>45</v>
@@ -40136,7 +40620,7 @@
         <v>224</v>
       </c>
       <c r="L161" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M161" s="33">
         <v>45</v>
@@ -40160,10 +40644,10 @@
         <v>239</v>
       </c>
       <c r="B162" s="454" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C162" s="455" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="D162" s="438"/>
       <c r="E162" s="550"/>
@@ -40180,7 +40664,7 @@
         <v>240</v>
       </c>
       <c r="L162" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M162" s="500">
         <v>45</v>
@@ -40217,7 +40701,7 @@
         <v>76</v>
       </c>
       <c r="L163" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M163" s="33">
         <v>45</v>
@@ -40259,7 +40743,7 @@
         <v>129</v>
       </c>
       <c r="L164" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M164" s="500">
         <v>45</v>
@@ -40296,7 +40780,7 @@
         <v>76</v>
       </c>
       <c r="L165" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M165" s="30">
         <v>45</v>
@@ -40331,7 +40815,7 @@
         <v>76</v>
       </c>
       <c r="L166" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M166" s="33">
         <v>45</v>
@@ -40368,7 +40852,7 @@
         <v>76</v>
       </c>
       <c r="L167" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M167" s="30">
         <v>46</v>
@@ -40398,7 +40882,7 @@
         <v>519</v>
       </c>
       <c r="L168" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M168" s="30">
         <v>46</v>
@@ -40417,7 +40901,7 @@
       </c>
       <c r="B169" s="454"/>
       <c r="C169" s="455" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="D169" s="438"/>
       <c r="E169" s="550"/>
@@ -40434,7 +40918,7 @@
         <v>345</v>
       </c>
       <c r="L169" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M169" s="492">
         <v>46</v>
@@ -40480,7 +40964,7 @@
         <v>641</v>
       </c>
       <c r="L170" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M170" s="492">
         <v>47</v>
@@ -40512,10 +40996,10 @@
         <v>389</v>
       </c>
       <c r="B171" s="454" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C171" s="455" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="D171" s="438"/>
       <c r="E171" s="550"/>
@@ -40532,7 +41016,7 @@
         <v>96</v>
       </c>
       <c r="L171" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M171" s="500">
         <v>47</v>
@@ -40563,13 +41047,13 @@
     </row>
     <row r="172" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="453" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="B172" s="454" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C172" s="455" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="D172" s="438"/>
       <c r="E172" s="550"/>
@@ -40577,7 +41061,7 @@
       <c r="G172" s="557"/>
       <c r="H172" s="499"/>
       <c r="I172" s="466" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="J172" s="467" t="s">
         <v>450</v>
@@ -40788,7 +41272,7 @@
         <v>638</v>
       </c>
       <c r="L177" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M177" s="30">
         <v>50</v>
@@ -40819,7 +41303,7 @@
         <v>224</v>
       </c>
       <c r="L178" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M178" s="30">
         <v>50</v>
@@ -40948,7 +41432,7 @@
         <v>76</v>
       </c>
       <c r="L182" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M182" s="30">
         <v>50</v>
@@ -40963,7 +41447,7 @@
     </row>
     <row r="183" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="453" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="B183" s="454"/>
       <c r="C183" s="455" t="s">
@@ -41110,7 +41594,7 @@
       </c>
       <c r="B187" s="454"/>
       <c r="C187" s="455" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="D187" s="438"/>
       <c r="E187" s="550"/>
@@ -41235,11 +41719,11 @@
     </row>
     <row r="191" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="453" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="B191" s="454"/>
       <c r="C191" s="455" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="D191" s="438"/>
       <c r="E191" s="550"/>
@@ -41433,7 +41917,7 @@
     </row>
     <row r="196" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="453" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="B196" s="454"/>
       <c r="C196" s="455" t="s">
@@ -41482,11 +41966,11 @@
     </row>
     <row r="197" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="453" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="B197" s="454"/>
       <c r="C197" s="455" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="D197" s="438"/>
       <c r="E197" s="550"/>
@@ -41494,7 +41978,7 @@
       <c r="G197" s="557"/>
       <c r="H197" s="499"/>
       <c r="I197" s="466" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="J197" s="467" t="s">
         <v>2</v>
@@ -41826,10 +42310,10 @@
     </row>
     <row r="206" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="453" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="B206" s="454" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="C206" s="455" t="s">
         <v>77</v>
@@ -42039,7 +42523,7 @@
       </c>
       <c r="B211" s="454"/>
       <c r="C211" s="455" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="D211" s="438"/>
       <c r="E211" s="550"/>
@@ -42343,13 +42827,13 @@
     </row>
     <row r="218" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="453" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="B218" s="454" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C218" s="455" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="D218" s="438"/>
       <c r="E218" s="550"/>
@@ -42392,7 +42876,7 @@
         <v>95</v>
       </c>
       <c r="V218" s="467" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="W218" s="474"/>
       <c r="X218" s="57"/>
@@ -42405,7 +42889,7 @@
         <v>288</v>
       </c>
       <c r="C219" s="455" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="D219" s="438"/>
       <c r="E219" s="550"/>
@@ -42463,7 +42947,7 @@
         <v>19</v>
       </c>
       <c r="C220" s="455" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="D220" s="438"/>
       <c r="E220" s="550"/>
@@ -42642,7 +43126,7 @@
       <c r="F224" s="552"/>
       <c r="G224" s="557"/>
       <c r="I224" s="4" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="J224" s="5" t="s">
         <v>670</v>
@@ -42774,10 +43258,10 @@
         <v>540</v>
       </c>
       <c r="B228" s="454" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="C228" s="455" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="D228" s="438"/>
       <c r="E228" s="550"/>
@@ -43043,10 +43527,10 @@
         <v>346</v>
       </c>
       <c r="B235" s="454" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="C235" s="455" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="D235" s="438"/>
       <c r="E235" s="550"/>
@@ -43192,13 +43676,13 @@
     </row>
     <row r="239" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="453" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="B239" s="454" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="C239" s="455" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="D239" s="438"/>
       <c r="E239" s="550"/>
@@ -43241,7 +43725,7 @@
         <v>162</v>
       </c>
       <c r="V239" s="467" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="W239" s="474"/>
       <c r="X239" s="57"/>
@@ -43732,10 +44216,10 @@
         <v>34</v>
       </c>
       <c r="B252" s="454" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C252" s="455" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="D252" s="438"/>
       <c r="E252" s="550"/>
@@ -43772,13 +44256,13 @@
       </c>
       <c r="S252" s="76"/>
       <c r="T252" s="4" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>381</v>
       </c>
       <c r="V252" s="5" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="W252" s="23"/>
       <c r="X252" s="57"/>
@@ -43907,10 +44391,10 @@
         <v>6</v>
       </c>
       <c r="B256" s="502" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="C256" s="455" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="D256" s="438"/>
       <c r="E256" s="550"/>
@@ -44345,13 +44829,13 @@
     </row>
     <row r="268" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="453" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="B268" s="454" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="C268" s="455" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="D268" s="438"/>
       <c r="E268" s="550"/>
@@ -44458,7 +44942,7 @@
         <v>76</v>
       </c>
       <c r="L270" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M270" s="492">
         <v>69</v>
@@ -44480,7 +44964,7 @@
       </c>
       <c r="B271" s="454"/>
       <c r="C271" s="455" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="D271" s="438"/>
       <c r="E271" s="550"/>
@@ -44497,7 +44981,7 @@
         <v>640</v>
       </c>
       <c r="L271" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M271" s="492">
         <v>69</v>
@@ -44516,11 +45000,11 @@
     </row>
     <row r="272" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="453" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="B272" s="454"/>
       <c r="C272" s="455" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="D272" s="438"/>
       <c r="E272" s="550"/>
@@ -44563,7 +45047,7 @@
         <v>162</v>
       </c>
       <c r="V272" s="467" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="W272" s="474" t="s">
         <v>85</v>
@@ -44588,7 +45072,7 @@
         <v>76</v>
       </c>
       <c r="L273" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M273" s="30">
         <v>69</v>
@@ -44636,7 +45120,7 @@
         <v>379</v>
       </c>
       <c r="L274" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M274" s="492">
         <v>70</v>
@@ -44671,7 +45155,7 @@
         <v>76</v>
       </c>
       <c r="L275" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M275" s="30">
         <v>70</v>
@@ -44706,7 +45190,7 @@
         <v>76</v>
       </c>
       <c r="L276" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M276" s="30">
         <v>70</v>
@@ -44726,13 +45210,13 @@
       </c>
       <c r="S276" s="67"/>
       <c r="T276" s="4" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>476</v>
       </c>
       <c r="V276" s="5" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="W276" s="23"/>
       <c r="X276" s="57"/>
@@ -44756,7 +45240,7 @@
         <v>2143</v>
       </c>
       <c r="L277" s="492" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M277" s="492">
         <v>71</v>
@@ -44791,7 +45275,7 @@
         <v>78</v>
       </c>
       <c r="L278" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M278" s="30">
         <v>71</v>
@@ -44880,7 +45364,7 @@
       </c>
       <c r="B281" s="454"/>
       <c r="C281" s="455" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="D281" s="438"/>
       <c r="E281" s="550"/>
@@ -45174,7 +45658,7 @@
       </c>
       <c r="B289" s="454"/>
       <c r="C289" s="455" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="D289" s="453" t="s">
         <v>549</v>
@@ -45330,10 +45814,10 @@
         <v>357</v>
       </c>
       <c r="B293" s="454" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C293" s="455" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="D293" s="438"/>
       <c r="E293" s="550"/>
@@ -45373,7 +45857,7 @@
       </c>
       <c r="B294" s="454"/>
       <c r="C294" s="455" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="D294" s="438"/>
       <c r="E294" s="550"/>
@@ -47785,16 +48269,16 @@
       </c>
       <c r="S359" s="473"/>
       <c r="T359" s="466" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="U359" s="467" t="s">
         <v>11</v>
       </c>
       <c r="V359" s="467" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="W359" s="474" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="X359" s="57"/>
     </row>
@@ -49194,10 +49678,10 @@
         <v>176</v>
       </c>
       <c r="B401" s="454" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C401" s="455" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="D401" s="453" t="s">
         <v>176</v>
@@ -49343,7 +49827,7 @@
         <v>19</v>
       </c>
       <c r="F405" s="562" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="G405" s="563">
         <v>1901</v>
@@ -49706,7 +50190,7 @@
       </c>
       <c r="B416" s="454"/>
       <c r="C416" s="455" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="D416" s="438"/>
       <c r="E416" s="550"/>
@@ -49743,7 +50227,7 @@
       </c>
       <c r="B417" s="454"/>
       <c r="C417" s="455" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="D417" s="438"/>
       <c r="E417" s="550"/>
@@ -50499,7 +50983,7 @@
         <v>89</v>
       </c>
       <c r="L440" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M440" s="30">
         <v>119</v>
@@ -50529,7 +51013,7 @@
         <v>89</v>
       </c>
       <c r="L441" s="30" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M441" s="30">
         <v>119</v>
@@ -50543,7 +51027,7 @@
     </row>
     <row r="442" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="453" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="B442" s="454" t="s">
         <v>114</v>
@@ -50564,7 +51048,7 @@
         <v>517</v>
       </c>
       <c r="L442" s="492" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M442" s="492">
         <v>120</v>
@@ -50609,7 +51093,7 @@
         <v>76</v>
       </c>
       <c r="L443" s="30" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M443" s="30">
         <v>120</v>
@@ -50639,7 +51123,7 @@
         <v>76</v>
       </c>
       <c r="L444" s="30" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M444" s="30">
         <v>121</v>
@@ -50669,7 +51153,7 @@
         <v>76</v>
       </c>
       <c r="L445" s="30" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M445" s="30">
         <v>121</v>
@@ -50699,7 +51183,7 @@
         <v>639</v>
       </c>
       <c r="L446" s="36" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M446" s="37">
         <v>121</v>
@@ -50731,7 +51215,7 @@
         <v>76</v>
       </c>
       <c r="L447" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M447" s="24">
         <v>121</v>
@@ -50761,7 +51245,7 @@
         <v>638</v>
       </c>
       <c r="L448" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M448" s="24">
         <v>121</v>
@@ -50791,7 +51275,7 @@
         <v>76</v>
       </c>
       <c r="L449" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M449" s="24">
         <v>121</v>
@@ -50821,7 +51305,7 @@
         <v>76</v>
       </c>
       <c r="L450" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M450" s="24">
         <v>121</v>
@@ -50841,7 +51325,7 @@
         <v>19</v>
       </c>
       <c r="C451" s="455" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="D451" s="438"/>
       <c r="E451" s="550"/>
@@ -50858,7 +51342,7 @@
         <v>646</v>
       </c>
       <c r="L451" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M451" s="469">
         <v>122</v>
@@ -50888,7 +51372,7 @@
         <v>76</v>
       </c>
       <c r="L452" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M452" s="24">
         <v>123</v>
@@ -50918,7 +51402,7 @@
         <v>512</v>
       </c>
       <c r="L453" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M453" s="24">
         <v>123</v>
@@ -50948,7 +51432,7 @@
         <v>620</v>
       </c>
       <c r="L454" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M454" s="24">
         <v>123</v>
@@ -50978,7 +51462,7 @@
         <v>76</v>
       </c>
       <c r="L455" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M455" s="24">
         <v>123</v>
@@ -50996,7 +51480,7 @@
       </c>
       <c r="B456" s="454"/>
       <c r="C456" s="455" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="D456" s="453" t="s">
         <v>156</v>
@@ -51021,7 +51505,7 @@
         <v>109</v>
       </c>
       <c r="L456" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M456" s="469">
         <v>124</v>
@@ -51051,7 +51535,7 @@
         <v>76</v>
       </c>
       <c r="L457" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M457" s="24">
         <v>124</v>
@@ -51081,7 +51565,7 @@
         <v>76</v>
       </c>
       <c r="L458" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M458" s="24">
         <v>124</v>
@@ -51111,7 +51595,7 @@
         <v>87</v>
       </c>
       <c r="L459" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M459" s="24">
         <v>125</v>
@@ -51141,7 +51625,7 @@
         <v>379</v>
       </c>
       <c r="L460" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M460" s="24">
         <v>125</v>
@@ -51180,7 +51664,7 @@
         <v>175</v>
       </c>
       <c r="L461" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M461" s="469">
         <v>125</v>
@@ -51210,7 +51694,7 @@
         <v>76</v>
       </c>
       <c r="L462" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M462" s="24">
         <v>125</v>
@@ -51240,7 +51724,7 @@
         <v>638</v>
       </c>
       <c r="L463" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M463" s="24">
         <v>125</v>
@@ -51270,7 +51754,7 @@
         <v>76</v>
       </c>
       <c r="L464" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M464" s="24">
         <v>126</v>
@@ -51309,7 +51793,7 @@
         <v>76</v>
       </c>
       <c r="L465" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M465" s="518">
         <v>126</v>
@@ -51332,7 +51816,7 @@
       <c r="F466" s="552"/>
       <c r="G466" s="557"/>
       <c r="I466" s="4" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="J466" s="5" t="s">
         <v>667</v>
@@ -51341,7 +51825,7 @@
         <v>637</v>
       </c>
       <c r="L466" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M466" s="24">
         <v>126</v>
@@ -51371,7 +51855,7 @@
         <v>76</v>
       </c>
       <c r="L467" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M467" s="24">
         <v>126</v>
@@ -51401,7 +51885,7 @@
         <v>76</v>
       </c>
       <c r="L468" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M468" s="24">
         <v>126</v>
@@ -51431,7 +51915,7 @@
         <v>640</v>
       </c>
       <c r="L469" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M469" s="24">
         <v>126</v>
@@ -51461,7 +51945,7 @@
         <v>2152</v>
       </c>
       <c r="L470" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M470" s="24">
         <v>126</v>
@@ -51484,7 +51968,7 @@
         <v>2</v>
       </c>
       <c r="F471" s="562" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="G471" s="563">
         <v>1901</v>
@@ -51500,7 +51984,7 @@
         <v>76</v>
       </c>
       <c r="L471" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M471" s="469">
         <v>126</v>
@@ -51530,7 +52014,7 @@
         <v>76</v>
       </c>
       <c r="L472" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M472" s="24">
         <v>126</v>
@@ -51560,7 +52044,7 @@
         <v>76</v>
       </c>
       <c r="L473" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M473" s="20">
         <v>126</v>
@@ -51593,7 +52077,7 @@
         <v>76</v>
       </c>
       <c r="L474" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M474" s="24">
         <v>126</v>
@@ -51633,7 +52117,7 @@
         <v>76</v>
       </c>
       <c r="L475" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M475" s="469">
         <v>126</v>
@@ -51648,13 +52132,13 @@
     </row>
     <row r="476" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="453" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="B476" s="454" t="s">
         <v>124</v>
       </c>
       <c r="C476" s="455" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="D476" s="438"/>
       <c r="E476" s="550"/>
@@ -51671,7 +52155,7 @@
         <v>125</v>
       </c>
       <c r="L476" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M476" s="469">
         <v>127</v>
@@ -51718,7 +52202,7 @@
         <v>76</v>
       </c>
       <c r="L477" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M477" s="24">
         <v>127</v>
@@ -51749,7 +52233,7 @@
         <v>76</v>
       </c>
       <c r="L478" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M478" s="24">
         <v>127</v>
@@ -51780,7 +52264,7 @@
         <v>76</v>
       </c>
       <c r="L479" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M479" s="24">
         <v>127</v>
@@ -51820,7 +52304,7 @@
         <v>76</v>
       </c>
       <c r="L480" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M480" s="469">
         <v>128</v>
@@ -51851,7 +52335,7 @@
         <v>76</v>
       </c>
       <c r="L481" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M481" s="24">
         <v>128</v>
@@ -51891,7 +52375,7 @@
         <v>76</v>
       </c>
       <c r="L482" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M482" s="469">
         <v>128</v>
@@ -51922,7 +52406,7 @@
         <v>125</v>
       </c>
       <c r="L483" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M483" s="24">
         <v>128</v>
@@ -51941,16 +52425,16 @@
       </c>
       <c r="B484" s="454"/>
       <c r="C484" s="455" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="D484" s="453" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="E484" s="502" t="s">
         <v>51</v>
       </c>
       <c r="F484" s="562" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="G484" s="563">
         <v>1901.1902</v>
@@ -51966,7 +52450,7 @@
         <v>513</v>
       </c>
       <c r="L484" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M484" s="469">
         <v>129</v>
@@ -52020,7 +52504,7 @@
         <v>76</v>
       </c>
       <c r="L485" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M485" s="469">
         <v>129</v>
@@ -52051,7 +52535,7 @@
         <v>76</v>
       </c>
       <c r="L486" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M486" s="24">
         <v>129</v>
@@ -52082,7 +52566,7 @@
         <v>76</v>
       </c>
       <c r="L487" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M487" s="24">
         <v>129</v>
@@ -52101,7 +52585,7 @@
       </c>
       <c r="B488" s="454"/>
       <c r="C488" s="455" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="D488" s="438"/>
       <c r="E488" s="550"/>
@@ -52118,7 +52602,7 @@
         <v>513</v>
       </c>
       <c r="L488" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M488" s="469">
         <v>130</v>
@@ -52163,7 +52647,7 @@
         <v>76</v>
       </c>
       <c r="L489" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M489" s="24">
         <v>131</v>
@@ -52194,7 +52678,7 @@
         <v>76</v>
       </c>
       <c r="L490" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M490" s="24">
         <v>131</v>
@@ -52225,7 +52709,7 @@
         <v>76</v>
       </c>
       <c r="L491" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M491" s="24">
         <v>131</v>
@@ -52256,7 +52740,7 @@
         <v>76</v>
       </c>
       <c r="L492" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M492" s="24">
         <v>131</v>
@@ -52287,7 +52771,7 @@
         <v>76</v>
       </c>
       <c r="L493" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M493" s="24">
         <v>131</v>
@@ -52318,7 +52802,7 @@
         <v>76</v>
       </c>
       <c r="L494" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M494" s="24">
         <v>131</v>
@@ -52349,7 +52833,7 @@
         <v>255</v>
       </c>
       <c r="L495" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M495" s="24">
         <v>131</v>
@@ -52380,7 +52864,7 @@
         <v>76</v>
       </c>
       <c r="L496" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M496" s="24">
         <v>131</v>
@@ -52411,7 +52895,7 @@
         <v>76</v>
       </c>
       <c r="L497" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M497" s="24">
         <v>131</v>
@@ -52442,7 +52926,7 @@
         <v>76</v>
       </c>
       <c r="L498" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M498" s="24">
         <v>131</v>
@@ -52473,7 +52957,7 @@
         <v>76</v>
       </c>
       <c r="L499" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M499" s="24">
         <v>131</v>
@@ -52497,7 +52981,7 @@
         <v>21</v>
       </c>
       <c r="F500" s="562" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G500" s="563">
         <v>1902</v>
@@ -52513,7 +52997,7 @@
         <v>125</v>
       </c>
       <c r="L500" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M500" s="469">
         <v>131</v>
@@ -52544,7 +53028,7 @@
         <v>76</v>
       </c>
       <c r="L501" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M501" s="24">
         <v>131</v>
@@ -52575,7 +53059,7 @@
         <v>76</v>
       </c>
       <c r="L502" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M502" s="24">
         <v>131</v>
@@ -52606,7 +53090,7 @@
         <v>76</v>
       </c>
       <c r="L503" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M503" s="24">
         <v>131</v>
@@ -52637,7 +53121,7 @@
         <v>76</v>
       </c>
       <c r="L504" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M504" s="24">
         <v>131</v>
@@ -52668,7 +53152,7 @@
         <v>76</v>
       </c>
       <c r="L505" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M505" s="24">
         <v>131</v>
@@ -52708,7 +53192,7 @@
         <v>76</v>
       </c>
       <c r="L506" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M506" s="469">
         <v>131</v>
@@ -52739,7 +53223,7 @@
         <v>76</v>
       </c>
       <c r="L507" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M507" s="24">
         <v>131</v>
@@ -52770,7 +53254,7 @@
         <v>76</v>
       </c>
       <c r="L508" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M508" s="24">
         <v>131</v>
@@ -52801,7 +53285,7 @@
         <v>76</v>
       </c>
       <c r="L509" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M509" s="24">
         <v>131</v>
@@ -52841,7 +53325,7 @@
         <v>76</v>
       </c>
       <c r="L510" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M510" s="469">
         <v>131</v>
@@ -52872,7 +53356,7 @@
         <v>76</v>
       </c>
       <c r="L511" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M511" s="24">
         <v>131</v>
@@ -52903,7 +53387,7 @@
         <v>125</v>
       </c>
       <c r="L512" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M512" s="24">
         <v>132</v>
@@ -52934,7 +53418,7 @@
         <v>76</v>
       </c>
       <c r="L513" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M513" s="24">
         <v>132</v>
@@ -52965,7 +53449,7 @@
         <v>76</v>
       </c>
       <c r="L514" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M514" s="24">
         <v>132</v>
@@ -53005,7 +53489,7 @@
         <v>76</v>
       </c>
       <c r="L515" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M515" s="469">
         <v>132</v>
@@ -53036,7 +53520,7 @@
         <v>83</v>
       </c>
       <c r="L516" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M516" s="24">
         <v>133</v>
@@ -53051,11 +53535,11 @@
     </row>
     <row r="517" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="453" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="B517" s="454"/>
       <c r="C517" s="455" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="D517" s="438"/>
       <c r="E517" s="550"/>
@@ -53072,7 +53556,7 @@
         <v>513</v>
       </c>
       <c r="L517" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M517" s="484">
         <v>133</v>
@@ -53094,7 +53578,7 @@
         <v>95</v>
       </c>
       <c r="V517" s="467" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="W517" s="474"/>
       <c r="X517" s="57"/>
@@ -53117,7 +53601,7 @@
         <v>125</v>
       </c>
       <c r="L518" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M518" s="38">
         <v>134</v>
@@ -53160,7 +53644,7 @@
         <v>76</v>
       </c>
       <c r="L519" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M519" s="38">
         <v>134</v>
@@ -53201,7 +53685,7 @@
         <v>76</v>
       </c>
       <c r="L520" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M520" s="38">
         <v>135</v>
@@ -53233,7 +53717,7 @@
         <v>89</v>
       </c>
       <c r="L521" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M521" s="38">
         <v>135</v>
@@ -53265,7 +53749,7 @@
         <v>84</v>
       </c>
       <c r="L522" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M522" s="38">
         <v>135</v>
@@ -53306,7 +53790,7 @@
         <v>76</v>
       </c>
       <c r="L523" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M523" s="482">
         <v>135</v>
@@ -53347,7 +53831,7 @@
         <v>76</v>
       </c>
       <c r="L524" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M524" s="482">
         <v>135</v>
@@ -53379,7 +53863,7 @@
         <v>76</v>
       </c>
       <c r="L525" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M525" s="38">
         <v>136</v>
@@ -53409,7 +53893,7 @@
         <v>76</v>
       </c>
       <c r="L526" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M526" s="38">
         <v>136</v>
@@ -53425,7 +53909,7 @@
     </row>
     <row r="527" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="453" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="B527" s="454"/>
       <c r="C527" s="455" t="s">
@@ -53446,7 +53930,7 @@
         <v>417</v>
       </c>
       <c r="L527" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M527" s="482">
         <v>136</v>
@@ -53468,7 +53952,7 @@
         <v>70</v>
       </c>
       <c r="V527" s="467" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="W527" s="474"/>
       <c r="X527" s="57"/>
@@ -53491,7 +53975,7 @@
         <v>76</v>
       </c>
       <c r="L528" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M528" s="38">
         <v>136</v>
@@ -53523,7 +54007,7 @@
         <v>382</v>
       </c>
       <c r="L529" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M529" s="38">
         <v>137</v>
@@ -53555,7 +54039,7 @@
         <v>76</v>
       </c>
       <c r="L530" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M530" s="38">
         <v>137</v>
@@ -53587,7 +54071,7 @@
         <v>643</v>
       </c>
       <c r="L531" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M531" s="38">
         <v>137</v>
@@ -53619,7 +54103,7 @@
         <v>76</v>
       </c>
       <c r="L532" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M532" s="38">
         <v>137</v>
@@ -53651,7 +54135,7 @@
         <v>76</v>
       </c>
       <c r="L533" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M533" s="38">
         <v>137</v>
@@ -53683,7 +54167,7 @@
         <v>76</v>
       </c>
       <c r="L534" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M534" s="38">
         <v>137</v>
@@ -53715,7 +54199,7 @@
         <v>175</v>
       </c>
       <c r="L535" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M535" s="38">
         <v>137</v>
@@ -53747,7 +54231,7 @@
         <v>382</v>
       </c>
       <c r="L536" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M536" s="38">
         <v>137</v>
@@ -53779,7 +54263,7 @@
         <v>76</v>
       </c>
       <c r="L537" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M537" s="38">
         <v>137</v>
@@ -53811,7 +54295,7 @@
         <v>76</v>
       </c>
       <c r="L538" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M538" s="38">
         <v>137</v>
@@ -53843,7 +54327,7 @@
         <v>76</v>
       </c>
       <c r="L539" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M539" s="38">
         <v>137</v>
@@ -53875,7 +54359,7 @@
         <v>76</v>
       </c>
       <c r="L540" s="19" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M540" s="38">
         <v>137</v>
@@ -53907,7 +54391,7 @@
         <v>637</v>
       </c>
       <c r="L541" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M541" s="41">
         <v>139</v>
@@ -53956,7 +54440,7 @@
         <v>640</v>
       </c>
       <c r="L542" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M542" s="41">
         <v>139</v>
@@ -54003,7 +54487,7 @@
         <v>76</v>
       </c>
       <c r="L543" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M543" s="20">
         <v>139</v>
@@ -54050,7 +54534,7 @@
         <v>76</v>
       </c>
       <c r="L544" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M544" s="42">
         <v>139</v>
@@ -54084,7 +54568,7 @@
         <v>1007</v>
       </c>
       <c r="L545" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M545" s="24">
         <v>141</v>
@@ -54116,7 +54600,7 @@
         <v>76</v>
       </c>
       <c r="L546" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M546" s="24">
         <v>141</v>
@@ -54157,7 +54641,7 @@
         <v>80</v>
       </c>
       <c r="L547" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M547" s="469">
         <v>141</v>
@@ -54189,7 +54673,7 @@
         <v>146</v>
       </c>
       <c r="L548" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M548" s="24">
         <v>141</v>
@@ -54221,7 +54705,7 @@
         <v>76</v>
       </c>
       <c r="L549" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M549" s="24">
         <v>141</v>
@@ -54254,7 +54738,7 @@
         <v>125</v>
       </c>
       <c r="L550" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M550" s="469">
         <v>141</v>
@@ -54299,7 +54783,7 @@
         <v>76</v>
       </c>
       <c r="L551" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M551" s="24">
         <v>142</v>
@@ -54331,7 +54815,7 @@
         <v>89</v>
       </c>
       <c r="L552" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M552" s="24">
         <v>142</v>
@@ -54350,10 +54834,10 @@
         <v>466</v>
       </c>
       <c r="B553" s="454" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C553" s="455" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="D553" s="438"/>
       <c r="E553" s="550"/>
@@ -54367,10 +54851,10 @@
         <v>19</v>
       </c>
       <c r="K553" s="467" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="L553" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M553" s="469">
         <v>142</v>
@@ -54402,10 +54886,10 @@
         <v>633</v>
       </c>
       <c r="B554" s="454" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C554" s="455" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="D554" s="438"/>
       <c r="E554" s="550"/>
@@ -54424,7 +54908,7 @@
         <v>1003</v>
       </c>
       <c r="L554" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M554" s="469">
         <v>142</v>
@@ -54455,7 +54939,7 @@
         <v>76</v>
       </c>
       <c r="L555" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M555" s="24">
         <v>143</v>
@@ -54485,7 +54969,7 @@
         <v>2145</v>
       </c>
       <c r="L556" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M556" s="20">
         <v>143</v>
@@ -54517,7 +55001,7 @@
         <v>159</v>
       </c>
       <c r="L557" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M557" s="24">
         <v>143</v>
@@ -54537,7 +55021,7 @@
         <v>676</v>
       </c>
       <c r="C558" s="455" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D558" s="438"/>
       <c r="E558" s="550"/>
@@ -54554,7 +55038,7 @@
         <v>83</v>
       </c>
       <c r="L558" s="468" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M558" s="469">
         <v>144</v>
@@ -54572,7 +55056,7 @@
       </c>
       <c r="B559" s="454"/>
       <c r="C559" s="455" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="D559" s="438"/>
       <c r="E559" s="550"/>
@@ -54589,7 +55073,7 @@
         <v>81</v>
       </c>
       <c r="L559" s="468" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M559" s="469">
         <v>145</v>
@@ -54619,7 +55103,7 @@
         <v>153</v>
       </c>
       <c r="L560" s="19" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M560" s="24">
         <v>145</v>
@@ -54649,7 +55133,7 @@
         <v>76</v>
       </c>
       <c r="L561" s="19" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M561" s="24">
         <v>145</v>
@@ -54679,7 +55163,7 @@
         <v>335</v>
       </c>
       <c r="L562" s="19" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M562" s="24">
         <v>145</v>
@@ -54709,7 +55193,7 @@
         <v>89</v>
       </c>
       <c r="L563" s="19" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M563" s="24">
         <v>145</v>
@@ -54889,7 +55373,7 @@
         <v>89</v>
       </c>
       <c r="L569" s="19" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="M569" s="24">
         <v>146</v>
@@ -55009,7 +55493,7 @@
         <v>76</v>
       </c>
       <c r="L573" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M573" s="24">
         <v>147</v>
@@ -55023,13 +55507,13 @@
     </row>
     <row r="574" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="453" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="B574" s="454" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="C574" s="455" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="D574" s="438"/>
       <c r="E574" s="550"/>
@@ -55046,7 +55530,7 @@
         <v>180</v>
       </c>
       <c r="L574" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M574" s="518">
         <v>148</v>
@@ -55119,7 +55603,7 @@
         <v>90</v>
       </c>
       <c r="L576" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M576" s="20">
         <v>149</v>
@@ -55151,7 +55635,7 @@
         <v>178</v>
       </c>
       <c r="L577" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M577" s="20">
         <v>149</v>
@@ -55186,7 +55670,7 @@
         <v>1008</v>
       </c>
       <c r="L578" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M578" s="20">
         <v>149</v>
@@ -55218,7 +55702,7 @@
         <v>90</v>
       </c>
       <c r="L579" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M579" s="20">
         <v>149</v>
@@ -55250,7 +55734,7 @@
         <v>76</v>
       </c>
       <c r="L580" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M580" s="24">
         <v>149</v>
@@ -55281,7 +55765,7 @@
         <v>514</v>
       </c>
       <c r="L581" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M581" s="24">
         <v>150</v>
@@ -55313,7 +55797,7 @@
         <v>576</v>
       </c>
       <c r="L582" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M582" s="24">
         <v>150</v>
@@ -55345,7 +55829,7 @@
         <v>87</v>
       </c>
       <c r="L583" s="19" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M583" s="24">
         <v>150</v>
@@ -55365,7 +55849,7 @@
       </c>
       <c r="B584" s="454"/>
       <c r="C584" s="455" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="D584" s="438"/>
       <c r="E584" s="550"/>
@@ -55382,7 +55866,7 @@
         <v>641</v>
       </c>
       <c r="L584" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M584" s="469">
         <v>151</v>
@@ -55401,10 +55885,10 @@
         <v>570</v>
       </c>
       <c r="B585" s="454" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="C585" s="455" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="D585" s="438"/>
       <c r="E585" s="550"/>
@@ -55421,7 +55905,7 @@
         <v>2146</v>
       </c>
       <c r="L585" s="468" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="M585" s="469">
         <v>151</v>
@@ -55453,10 +55937,10 @@
         <v>220</v>
       </c>
       <c r="B586" s="454" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="C586" s="455" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="D586" s="438"/>
       <c r="E586" s="550"/>
@@ -55546,7 +56030,7 @@
         <v>76</v>
       </c>
       <c r="L588" s="468" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M588" s="469">
         <v>152</v>
@@ -55795,7 +56279,7 @@
         <v>37</v>
       </c>
       <c r="F596" s="562" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G596" s="563">
         <v>1901</v>
@@ -55932,7 +56416,7 @@
         <v>2</v>
       </c>
       <c r="F600" s="562" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G600" s="563">
         <v>1901.1902</v>
@@ -56065,7 +56549,7 @@
         <v>774</v>
       </c>
       <c r="B604" s="454" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="C604" s="475" t="s">
         <v>649</v>
@@ -56131,7 +56615,7 @@
         <v>106</v>
       </c>
       <c r="L605" s="332" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="M605" s="332">
         <v>165</v>
@@ -56193,13 +56677,13 @@
     </row>
     <row r="607" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="453" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="B607" s="454" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="C607" s="455" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="D607" s="438"/>
       <c r="E607" s="550"/>
@@ -56238,7 +56722,7 @@
         <v>508</v>
       </c>
       <c r="V607" s="464" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="W607" s="465" t="s">
         <v>744</v>
@@ -56256,7 +56740,7 @@
         <v>426</v>
       </c>
       <c r="F608" s="562" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="G608" s="563">
         <v>1901</v>
@@ -56272,7 +56756,7 @@
         <v>109</v>
       </c>
       <c r="L608" s="458" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="M608" s="458">
         <v>167</v>
@@ -56305,7 +56789,7 @@
         <v>76</v>
       </c>
       <c r="L609" s="332" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="M609" s="332">
         <v>167</v>
@@ -56499,11 +56983,11 @@
     </row>
     <row r="616" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="431" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="B616" s="428"/>
       <c r="C616" s="437" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="D616" s="435" t="s">
         <v>92</v>
@@ -56512,7 +56996,7 @@
         <v>91</v>
       </c>
       <c r="F616" s="553" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="G616" s="564">
         <v>1902</v>
@@ -56547,14 +57031,14 @@
     </row>
     <row r="617" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="431" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="B617" s="428"/>
       <c r="C617" s="437" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="D617" s="435" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="E617" s="549" t="s">
         <v>30</v>
@@ -56580,13 +57064,13 @@
       <c r="R617" s="122"/>
       <c r="S617" s="122"/>
       <c r="T617" s="123" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="U617" s="124" t="s">
         <v>134</v>
       </c>
       <c r="V617" s="122" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="W617" s="125" t="s">
         <v>811</v>
@@ -56595,16 +57079,16 @@
     </row>
     <row r="618" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="118" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
       <c r="B618" s="436" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="C618" s="437" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="D618" s="435" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="E618" s="549" t="s">
         <v>91</v>
@@ -56647,16 +57131,16 @@
       </c>
       <c r="B619" s="436"/>
       <c r="C619" s="437" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="D619" s="435" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="E619" s="549" t="s">
         <v>150</v>
       </c>
       <c r="F619" s="553" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G619" s="564">
         <v>1902</v>
@@ -56687,7 +57171,7 @@
     </row>
     <row r="620" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="435" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="B620" s="436"/>
       <c r="C620" s="437" t="s">
@@ -56718,7 +57202,7 @@
       <c r="R620" s="424"/>
       <c r="S620" s="424"/>
       <c r="T620" s="425" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="U620" s="426" t="s">
         <v>773</v>
@@ -56729,20 +57213,20 @@
     </row>
     <row r="621" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="435" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="B621" s="436"/>
       <c r="C621" s="437" t="s">
         <v>639</v>
       </c>
       <c r="D621" s="435" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="E621" s="549" t="s">
         <v>65</v>
       </c>
       <c r="F621" s="553" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="G621" s="564">
         <v>1902</v>
@@ -56773,7 +57257,7 @@
     </row>
     <row r="622" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="435" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="B622" s="436"/>
       <c r="C622" s="437" t="s">
@@ -56817,14 +57301,14 @@
     </row>
     <row r="623" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="431" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="B623" s="436"/>
       <c r="C623" s="437" t="s">
         <v>164</v>
       </c>
       <c r="D623" s="435" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="E623" s="549" t="s">
         <v>46</v>
@@ -56848,10 +57332,10 @@
       <c r="R623" s="128"/>
       <c r="S623" s="122"/>
       <c r="T623" s="425" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="U623" s="426" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="V623" s="424" t="s">
         <v>998</v>
@@ -56861,20 +57345,20 @@
     </row>
     <row r="624" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="435" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="B624" s="436"/>
       <c r="C624" s="437" t="s">
         <v>146</v>
       </c>
       <c r="D624" s="435" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="E624" s="549" t="s">
         <v>91</v>
       </c>
       <c r="F624" s="553" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="G624" s="564">
         <v>1902</v>
@@ -56892,10 +57376,10 @@
       <c r="R624" s="122"/>
       <c r="S624" s="122"/>
       <c r="T624" s="425" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="U624" s="426" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="V624" s="424" t="s">
         <v>998</v>
@@ -56905,14 +57389,14 @@
     </row>
     <row r="625" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="435" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="B625" s="441"/>
       <c r="C625" s="437" t="s">
         <v>1006</v>
       </c>
       <c r="D625" s="435" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
       <c r="E625" s="549" t="s">
         <v>30</v>
@@ -56936,7 +57420,7 @@
       <c r="R625" s="122"/>
       <c r="S625" s="122"/>
       <c r="T625" s="425" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="U625" s="426" t="s">
         <v>162</v>
@@ -56949,13 +57433,13 @@
     </row>
     <row r="626" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="435" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="B626" s="441" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="C626" s="437" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="D626" s="435" t="s">
         <v>600</v>
@@ -56995,13 +57479,13 @@
     </row>
     <row r="627" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="431" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="B627" s="428" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="C627" s="437" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="D627" s="435" t="s">
         <v>449</v>
@@ -57010,7 +57494,7 @@
         <v>526</v>
       </c>
       <c r="F627" s="553" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
       <c r="G627" s="564">
         <v>1902</v>
@@ -57028,10 +57512,10 @@
       <c r="R627" s="424"/>
       <c r="S627" s="424"/>
       <c r="T627" s="425" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="U627" s="426" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="V627" s="424" t="s">
         <v>1001</v>
@@ -57041,20 +57525,20 @@
     </row>
     <row r="628" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="431" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="B628" s="428"/>
       <c r="C628" s="437" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="D628" s="435" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
       <c r="E628" s="549" t="s">
         <v>28</v>
       </c>
       <c r="F628" s="553" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="G628" s="564">
         <v>1902</v>
@@ -57087,16 +57571,16 @@
     </row>
     <row r="629" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="431" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="B629" s="428" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C629" s="437" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="D629" s="435" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="E629" s="549" t="s">
         <v>26</v>
@@ -57129,22 +57613,22 @@
     </row>
     <row r="630" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="431" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="B630" s="428" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="C630" s="437" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="D630" s="435" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
       <c r="E630" s="549" t="s">
         <v>39</v>
       </c>
       <c r="F630" s="553" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G630" s="564">
         <v>1901</v>
@@ -57171,14 +57655,14 @@
     </row>
     <row r="631" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="431" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="B631" s="428"/>
       <c r="C631" s="437" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="D631" s="435" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="E631" s="549" t="s">
         <v>30</v>
@@ -57213,20 +57697,20 @@
     </row>
     <row r="632" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="431" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="B632" s="428"/>
       <c r="C632" s="437" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="D632" s="435" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="E632" s="549" t="s">
         <v>150</v>
       </c>
       <c r="F632" s="553" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G632" s="564">
         <v>1901</v>
@@ -57255,14 +57739,14 @@
     </row>
     <row r="633" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="431" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="B633" s="428"/>
       <c r="C633" s="437" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="D633" s="435" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="E633" s="549" t="s">
         <v>726</v>
@@ -57297,14 +57781,14 @@
     </row>
     <row r="634" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="431" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="B634" s="428"/>
       <c r="C634" s="437" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="D634" s="435" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="E634" s="549" t="s">
         <v>30</v>
@@ -57337,20 +57821,20 @@
     </row>
     <row r="635" spans="1:24" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="431" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B635" s="428"/>
       <c r="C635" s="437" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="D635" s="435" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="E635" s="549" t="s">
         <v>30</v>
       </c>
       <c r="F635" s="553" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="G635" s="564">
         <v>1901</v>
@@ -57383,7 +57867,7 @@
         <v>167</v>
       </c>
       <c r="C636" s="437" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="D636" s="435" t="s">
         <v>1206</v>
@@ -57530,7 +58014,7 @@
       <c r="B640" s="428"/>
       <c r="C640" s="437"/>
       <c r="D640" s="431" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="E640" s="559" t="s">
         <v>37</v>
@@ -57722,11 +58206,11 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="103" customWidth="1"/>
     <col min="2" max="2" width="10" style="103" customWidth="1"/>
@@ -57894,7 +58378,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="105" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -57950,7 +58434,7 @@
       <c r="E19" s="104"/>
       <c r="H19" s="104"/>
       <c r="I19" s="106" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -58114,7 +58598,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="105"/>
       <c r="I34" s="105" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -58926,7 +59410,7 @@
         <v>868</v>
       </c>
       <c r="J106" s="105" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -59958,7 +60442,7 @@
     </row>
     <row r="222" spans="1:10" s="103" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I222" s="105" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="223" spans="1:10" s="103" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -60196,7 +60680,7 @@
         <v>2138</v>
       </c>
       <c r="I247" s="105" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -60235,11 +60719,11 @@
   </sheetPr>
   <dimension ref="B2:E261"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
@@ -63390,7 +63874,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -64116,11 +64600,11 @@
   </sheetPr>
   <dimension ref="B2:F223"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -67876,6 +68360,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -67883,11 +68368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5A687-079E-42FA-A4BB-54E05061D079}">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
@@ -67899,388 +68384,388 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="630" t="s">
+      <c r="B3" s="633" t="s">
         <v>1050</v>
       </c>
-      <c r="C3" s="630">
+      <c r="C3" s="633">
         <v>1933</v>
       </c>
-      <c r="D3" s="631" t="s">
+      <c r="D3" s="636" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E3" s="636" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F3" s="636" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G3" s="636" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H3" s="636" t="s">
+        <v>2546</v>
+      </c>
+      <c r="I3" s="636" t="s">
         <v>2547</v>
       </c>
-      <c r="E3" s="631" t="s">
+      <c r="J3" s="636" t="s">
         <v>2548</v>
       </c>
-      <c r="F3" s="631" t="s">
-        <v>2549</v>
-      </c>
-      <c r="G3" s="631" t="s">
-        <v>2550</v>
-      </c>
-      <c r="H3" s="631" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I3" s="631" t="s">
-        <v>2552</v>
-      </c>
-      <c r="J3" s="631" t="s">
-        <v>2553</v>
-      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="632" t="s">
+      <c r="B4" s="634" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C4" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E4" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="H4" s="637" t="s">
+        <v>2502</v>
+      </c>
+      <c r="I4" s="637" t="s">
+        <v>2503</v>
+      </c>
+      <c r="J4" s="637" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="634" t="s">
         <v>2504</v>
       </c>
-      <c r="C4" s="632" t="s">
+      <c r="C5" s="637" t="s">
         <v>2505</v>
       </c>
-      <c r="D4" s="632" t="s">
+      <c r="D5" s="637" t="s">
         <v>2506</v>
       </c>
-      <c r="E4" s="632" t="s">
+      <c r="E5" s="637" t="s">
         <v>2505</v>
       </c>
-      <c r="F4" s="632" t="s">
+      <c r="F5" s="637" t="s">
         <v>2505</v>
       </c>
-      <c r="G4" s="632" t="s">
+      <c r="G5" s="637" t="s">
         <v>2505</v>
       </c>
-      <c r="H4" s="632" t="s">
+      <c r="H5" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I5" s="637" t="s">
         <v>2507</v>
       </c>
-      <c r="I4" s="632" t="s">
+      <c r="J5" s="637" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="634" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C6" s="637" t="s">
         <v>2508</v>
       </c>
-      <c r="J4" s="632" t="s">
+      <c r="D6" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="637" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="632" t="s">
+      <c r="F6" s="637" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G6" s="637" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H6" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I6" s="637" t="s">
+        <v>2500</v>
+      </c>
+      <c r="J6" s="637" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="634" t="s">
         <v>2509</v>
       </c>
-      <c r="C5" s="632" t="s">
+      <c r="C7" s="637" t="s">
         <v>2510</v>
       </c>
-      <c r="D5" s="632" t="s">
+      <c r="D7" s="637" t="s">
         <v>2511</v>
       </c>
-      <c r="E5" s="632" t="s">
+      <c r="E7" s="638"/>
+      <c r="F7" s="637" t="s">
         <v>2510</v>
       </c>
-      <c r="F5" s="632" t="s">
+      <c r="G7" s="637" t="s">
         <v>2510</v>
       </c>
-      <c r="G5" s="632" t="s">
-        <v>2510</v>
-      </c>
-      <c r="H5" s="632" t="s">
+      <c r="H7" s="637" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I7" s="637" t="s">
+        <v>2513</v>
+      </c>
+      <c r="J7" s="637" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="634" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C8" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D8" s="637" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E8" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F8" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="G8" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H8" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="I8" s="637" t="s">
+        <v>2517</v>
+      </c>
+      <c r="J8" s="637" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="634" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C9" s="637" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D9" s="637" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E9" s="637" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F9" s="637" t="s">
+        <v>2519</v>
+      </c>
+      <c r="G9" s="637" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H9" s="637" t="s">
+        <v>2519</v>
+      </c>
+      <c r="I9" s="637" t="s">
+        <v>2520</v>
+      </c>
+      <c r="J9" s="637" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="634" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C10" s="637" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D10" s="637" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E10" s="637" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F10" s="637" t="s">
         <v>2506</v>
       </c>
-      <c r="I5" s="632" t="s">
+      <c r="G10" s="637" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H10" s="637" t="s">
+        <v>2523</v>
+      </c>
+      <c r="I10" s="637" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J10" s="637" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="634" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C11" s="638"/>
+      <c r="D11" s="638"/>
+      <c r="E11" s="638"/>
+      <c r="F11" s="638"/>
+      <c r="G11" s="637" t="s">
         <v>2512</v>
       </c>
-      <c r="J5" s="632" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="632" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C6" s="632" t="s">
-        <v>2513</v>
-      </c>
-      <c r="D6" s="632" t="s">
-        <v>2505</v>
-      </c>
-      <c r="E6" s="632" t="s">
-        <v>2513</v>
-      </c>
-      <c r="F6" s="632" t="s">
-        <v>2513</v>
-      </c>
-      <c r="G6" s="632" t="s">
-        <v>2513</v>
-      </c>
-      <c r="H6" s="632" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I6" s="632" t="s">
-        <v>2505</v>
-      </c>
-      <c r="J6" s="632" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="632" t="s">
-        <v>2514</v>
-      </c>
-      <c r="C7" s="632" t="s">
-        <v>2515</v>
-      </c>
-      <c r="D7" s="632" t="s">
-        <v>2516</v>
-      </c>
-      <c r="E7" s="633"/>
-      <c r="F7" s="632" t="s">
-        <v>2515</v>
-      </c>
-      <c r="G7" s="632" t="s">
-        <v>2515</v>
-      </c>
-      <c r="H7" s="632" t="s">
-        <v>2517</v>
-      </c>
-      <c r="I7" s="632" t="s">
-        <v>2518</v>
-      </c>
-      <c r="J7" s="632" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="632" t="s">
-        <v>2519</v>
-      </c>
-      <c r="C8" s="632" t="s">
+      <c r="H11" s="638"/>
+      <c r="I11" s="637" t="s">
+        <v>2525</v>
+      </c>
+      <c r="J11" s="638"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="634" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C12" s="637" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D12" s="637" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E12" s="637" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F12" s="637" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G12" s="637" t="s">
+        <v>2527</v>
+      </c>
+      <c r="H12" s="637" t="s">
+        <v>2528</v>
+      </c>
+      <c r="I12" s="637" t="s">
+        <v>2528</v>
+      </c>
+      <c r="J12" s="637" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="634" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C13" s="638"/>
+      <c r="D13" s="638"/>
+      <c r="E13" s="638"/>
+      <c r="F13" s="638"/>
+      <c r="G13" s="637" t="s">
+        <v>2530</v>
+      </c>
+      <c r="H13" s="638"/>
+      <c r="I13" s="638"/>
+      <c r="J13" s="638"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="634" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C14" s="638"/>
+      <c r="D14" s="638"/>
+      <c r="E14" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F14" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G14" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H14" s="637" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I14" s="637" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J14" s="637" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="635"/>
+      <c r="C15" s="638"/>
+      <c r="D15" s="638"/>
+      <c r="E15" s="637" t="s">
+        <v>2502</v>
+      </c>
+      <c r="F15" s="637" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G15" s="637" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H15" s="637" t="s">
         <v>2520</v>
       </c>
-      <c r="D8" s="632" t="s">
-        <v>2521</v>
-      </c>
-      <c r="E8" s="632" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F8" s="632" t="s">
-        <v>2520</v>
-      </c>
-      <c r="G8" s="632" t="s">
-        <v>2520</v>
-      </c>
-      <c r="H8" s="632" t="s">
-        <v>2520</v>
-      </c>
-      <c r="I8" s="632" t="s">
-        <v>2522</v>
-      </c>
-      <c r="J8" s="632" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="632" t="s">
-        <v>2523</v>
-      </c>
-      <c r="C9" s="632" t="s">
-        <v>2524</v>
-      </c>
-      <c r="D9" s="632" t="s">
-        <v>2524</v>
-      </c>
-      <c r="E9" s="632" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F9" s="632" t="s">
-        <v>2524</v>
-      </c>
-      <c r="G9" s="632" t="s">
-        <v>2525</v>
-      </c>
-      <c r="H9" s="632" t="s">
-        <v>2524</v>
-      </c>
-      <c r="I9" s="632" t="s">
-        <v>2525</v>
-      </c>
-      <c r="J9" s="632" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="632" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C10" s="632" t="s">
-        <v>2527</v>
-      </c>
-      <c r="D10" s="632" t="s">
-        <v>2527</v>
-      </c>
-      <c r="E10" s="632" t="s">
-        <v>2527</v>
-      </c>
-      <c r="F10" s="632" t="s">
-        <v>2511</v>
-      </c>
-      <c r="G10" s="632" t="s">
-        <v>2511</v>
-      </c>
-      <c r="H10" s="632" t="s">
-        <v>2528</v>
-      </c>
-      <c r="I10" s="632" t="s">
-        <v>2520</v>
-      </c>
-      <c r="J10" s="632" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="632" t="s">
-        <v>2523</v>
-      </c>
-      <c r="C11" s="633"/>
-      <c r="D11" s="633"/>
-      <c r="E11" s="633"/>
-      <c r="F11" s="633"/>
-      <c r="G11" s="632" t="s">
-        <v>2517</v>
-      </c>
-      <c r="H11" s="633"/>
-      <c r="I11" s="632" t="s">
-        <v>2530</v>
-      </c>
-      <c r="J11" s="633"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="632" t="s">
-        <v>2531</v>
-      </c>
-      <c r="C12" s="632" t="s">
-        <v>2532</v>
-      </c>
-      <c r="D12" s="632" t="s">
-        <v>2532</v>
-      </c>
-      <c r="E12" s="632" t="s">
-        <v>2532</v>
-      </c>
-      <c r="F12" s="632" t="s">
-        <v>2532</v>
-      </c>
-      <c r="G12" s="632" t="s">
-        <v>2532</v>
-      </c>
-      <c r="H12" s="632" t="s">
-        <v>2533</v>
-      </c>
-      <c r="I12" s="632" t="s">
-        <v>2533</v>
-      </c>
-      <c r="J12" s="632" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="632" t="s">
+      <c r="I15" s="637" t="s">
         <v>2534</v>
       </c>
-      <c r="C13" s="633"/>
-      <c r="D13" s="633"/>
-      <c r="E13" s="633"/>
-      <c r="F13" s="633"/>
-      <c r="G13" s="632" t="s">
+      <c r="J15" s="637" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="635"/>
+      <c r="C16" s="638"/>
+      <c r="D16" s="638"/>
+      <c r="E16" s="637" t="s">
         <v>2535</v>
       </c>
-      <c r="H13" s="633"/>
-      <c r="I13" s="633"/>
-      <c r="J13" s="633"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="632" t="s">
+      <c r="F16" s="637" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G16" s="637" t="s">
         <v>2536</v>
       </c>
-      <c r="C14" s="633"/>
-      <c r="D14" s="633"/>
-      <c r="E14" s="632" t="s">
-        <v>2506</v>
-      </c>
-      <c r="F14" s="632" t="s">
-        <v>2506</v>
-      </c>
-      <c r="G14" s="632" t="s">
-        <v>2506</v>
-      </c>
-      <c r="H14" s="632" t="s">
+      <c r="H16" s="637" t="s">
         <v>2537</v>
       </c>
-      <c r="I14" s="632" t="s">
+      <c r="I16" s="637" t="s">
+        <v>2501</v>
+      </c>
+      <c r="J16" s="638"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="634" t="s">
         <v>2538</v>
       </c>
-      <c r="J14" s="632" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="633"/>
-      <c r="C15" s="633"/>
-      <c r="D15" s="633"/>
-      <c r="E15" s="632" t="s">
-        <v>2507</v>
-      </c>
-      <c r="F15" s="632" t="s">
-        <v>2507</v>
-      </c>
-      <c r="G15" s="632" t="s">
-        <v>2507</v>
-      </c>
-      <c r="H15" s="632" t="s">
-        <v>2525</v>
-      </c>
-      <c r="I15" s="632" t="s">
+      <c r="C17" s="638"/>
+      <c r="D17" s="637" t="s">
         <v>2539</v>
       </c>
-      <c r="J15" s="632" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="633"/>
-      <c r="C16" s="633"/>
-      <c r="D16" s="633"/>
-      <c r="E16" s="632" t="s">
+      <c r="E17" s="637" t="s">
         <v>2540</v>
       </c>
-      <c r="F16" s="632" t="s">
-        <v>2540</v>
-      </c>
-      <c r="G16" s="632" t="s">
+      <c r="F17" s="637" t="s">
         <v>2541</v>
       </c>
-      <c r="H16" s="632" t="s">
-        <v>2542</v>
-      </c>
-      <c r="I16" s="632" t="s">
-        <v>2506</v>
-      </c>
-      <c r="J16" s="633"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="632" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C17" s="633"/>
-      <c r="D17" s="632" t="s">
-        <v>2544</v>
-      </c>
-      <c r="E17" s="632" t="s">
-        <v>2545</v>
-      </c>
-      <c r="F17" s="632" t="s">
-        <v>2546</v>
-      </c>
-      <c r="G17" s="632" t="s">
-        <v>2546</v>
-      </c>
-      <c r="H17" s="633"/>
-      <c r="I17" s="632" t="s">
-        <v>2546</v>
-      </c>
-      <c r="J17" s="632" t="s">
-        <v>2546</v>
+      <c r="G17" s="637" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H17" s="638"/>
+      <c r="I17" s="637" t="s">
+        <v>2541</v>
+      </c>
+      <c r="J17" s="637" t="s">
+        <v>2541</v>
       </c>
     </row>
   </sheetData>
@@ -68293,11 +68778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="109" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="109" customWidth="1"/>
@@ -68325,7 +68810,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="537" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="I2" s="170" t="s">
         <v>1345</v>
@@ -68845,12 +69330,12 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="109" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="109" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -68865,72 +69350,72 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="539" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="C33" s="539" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="539" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C34" s="539" t="s">
         <v>2454</v>
-      </c>
-      <c r="C34" s="539" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="539" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C35" s="539" t="s">
         <v>2455</v>
-      </c>
-      <c r="C35" s="539" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="539" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C36" s="539" t="s">
         <v>2456</v>
-      </c>
-      <c r="C36" s="539" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C37" s="539" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C38" s="539" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="539" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="539" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="539" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="C42" s="539" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C43" s="539" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C44" s="539" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.2">
